--- a/仕様/BK/GKL项目190106.xlsx
+++ b/仕様/BK/GKL项目190106.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ILIKEMAKE2017\GKL\仕様\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WINSHARE\GKL\仕様\BK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" activeTab="10"/>
+    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="系统图" sheetId="7" r:id="rId1"/>
@@ -4512,7 +4512,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6132,84 +6132,6 @@
     <xf numFmtId="0" fontId="49" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -6231,9 +6153,6 @@
     <xf numFmtId="0" fontId="53" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -6243,9 +6162,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -6254,9 +6170,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -6268,12 +6181,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -6306,19 +6213,10 @@
     <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
@@ -6336,15 +6234,6 @@
     <xf numFmtId="0" fontId="35" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -6354,15 +6243,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6371,12 +6251,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6395,18 +6269,6 @@
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -6456,18 +6318,6 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -6477,12 +6327,162 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="6" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="40% - 着色 1" xfId="1" builtinId="31"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9"/>
+    <cellStyle name="40% - アクセント 1" xfId="1" builtinId="31"/>
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9"/>
   </cellStyles>
   <dxfs count="49">
     <dxf>
@@ -16349,7 +16349,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -17295,8 +17295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C8:AI54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17328,555 +17328,555 @@
   </cols>
   <sheetData>
     <row r="8" spans="3:35">
-      <c r="X8" s="320"/>
+      <c r="X8" s="270"/>
     </row>
     <row r="9" spans="3:35">
-      <c r="X9" s="320" t="s">
+      <c r="X9" s="270" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="10" spans="3:35">
-      <c r="X10" s="320" t="s">
+      <c r="X10" s="270" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="11" spans="3:35">
-      <c r="X11" s="322" t="s">
+      <c r="X11" s="272" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="12" spans="3:35">
-      <c r="O12" s="320" t="s">
+      <c r="O12" s="270" t="s">
         <v>574</v>
       </c>
-      <c r="X12" s="322" t="s">
+      <c r="X12" s="272" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="13" spans="3:35" ht="15" thickBot="1"/>
     <row r="14" spans="3:35" ht="18" thickBot="1">
-      <c r="C14" s="300" t="s">
+      <c r="C14" s="254" t="s">
         <v>567</v>
       </c>
-      <c r="D14" s="234"/>
-      <c r="E14" s="234"/>
-      <c r="F14" s="234"/>
-      <c r="G14" s="234"/>
-      <c r="H14" s="234"/>
-      <c r="I14" s="234"/>
-      <c r="J14" s="234"/>
-      <c r="K14" s="234"/>
-      <c r="L14" s="234"/>
-      <c r="M14" s="235"/>
-      <c r="N14" s="236"/>
-      <c r="O14" s="300" t="s">
+      <c r="D14" s="208"/>
+      <c r="E14" s="208"/>
+      <c r="F14" s="208"/>
+      <c r="G14" s="208"/>
+      <c r="H14" s="208"/>
+      <c r="I14" s="208"/>
+      <c r="J14" s="208"/>
+      <c r="K14" s="208"/>
+      <c r="L14" s="208"/>
+      <c r="M14" s="209"/>
+      <c r="N14" s="210"/>
+      <c r="O14" s="254" t="s">
         <v>318</v>
       </c>
-      <c r="P14" s="234"/>
-      <c r="Q14" s="234"/>
-      <c r="R14" s="234"/>
-      <c r="S14" s="234"/>
-      <c r="T14" s="234"/>
-      <c r="U14" s="234"/>
-      <c r="V14" s="235"/>
+      <c r="P14" s="208"/>
+      <c r="Q14" s="208"/>
+      <c r="R14" s="208"/>
+      <c r="S14" s="208"/>
+      <c r="T14" s="208"/>
+      <c r="U14" s="208"/>
+      <c r="V14" s="209"/>
       <c r="W14" s="132"/>
-      <c r="X14" s="300" t="s">
+      <c r="X14" s="254" t="s">
         <v>338</v>
       </c>
-      <c r="Y14" s="234"/>
-      <c r="Z14" s="234"/>
-      <c r="AA14" s="234"/>
-      <c r="AB14" s="234"/>
-      <c r="AC14" s="234"/>
-      <c r="AD14" s="234"/>
-      <c r="AE14" s="234"/>
-      <c r="AF14" s="234"/>
-      <c r="AG14" s="234"/>
-      <c r="AH14" s="234"/>
-      <c r="AI14" s="235"/>
+      <c r="Y14" s="208"/>
+      <c r="Z14" s="208"/>
+      <c r="AA14" s="208"/>
+      <c r="AB14" s="208"/>
+      <c r="AC14" s="208"/>
+      <c r="AD14" s="208"/>
+      <c r="AE14" s="208"/>
+      <c r="AF14" s="208"/>
+      <c r="AG14" s="208"/>
+      <c r="AH14" s="208"/>
+      <c r="AI14" s="209"/>
     </row>
     <row r="15" spans="3:35" ht="15" thickBot="1">
-      <c r="C15" s="244"/>
-      <c r="D15" s="236"/>
-      <c r="E15" s="236"/>
-      <c r="F15" s="236"/>
-      <c r="G15" s="236"/>
-      <c r="H15" s="236"/>
-      <c r="I15" s="236"/>
-      <c r="J15" s="236"/>
-      <c r="K15" s="236"/>
-      <c r="L15" s="236"/>
-      <c r="M15" s="237"/>
-      <c r="N15" s="236"/>
-      <c r="O15" s="244"/>
-      <c r="P15" s="236"/>
-      <c r="Q15" s="236"/>
-      <c r="R15" s="236"/>
-      <c r="S15" s="254" t="s">
+      <c r="C15" s="217"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="210"/>
+      <c r="G15" s="210"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="210"/>
+      <c r="J15" s="210"/>
+      <c r="K15" s="210"/>
+      <c r="L15" s="210"/>
+      <c r="M15" s="211"/>
+      <c r="N15" s="210"/>
+      <c r="O15" s="217"/>
+      <c r="P15" s="210"/>
+      <c r="Q15" s="210"/>
+      <c r="R15" s="210"/>
+      <c r="S15" s="295" t="s">
         <v>326</v>
       </c>
-      <c r="T15" s="255"/>
-      <c r="V15" s="237"/>
+      <c r="T15" s="296"/>
+      <c r="V15" s="211"/>
       <c r="W15" s="132"/>
-      <c r="X15" s="244"/>
-      <c r="Y15" s="236"/>
-      <c r="Z15" s="236"/>
-      <c r="AA15" s="236"/>
-      <c r="AB15" s="236"/>
-      <c r="AC15" s="254" t="s">
+      <c r="X15" s="217"/>
+      <c r="Y15" s="210"/>
+      <c r="Z15" s="210"/>
+      <c r="AA15" s="210"/>
+      <c r="AB15" s="210"/>
+      <c r="AC15" s="295" t="s">
         <v>339</v>
       </c>
-      <c r="AD15" s="255"/>
-      <c r="AE15" s="256"/>
-      <c r="AF15" s="256"/>
-      <c r="AG15" s="238" t="s">
+      <c r="AD15" s="296"/>
+      <c r="AE15" s="225"/>
+      <c r="AF15" s="225"/>
+      <c r="AG15" s="212" t="s">
         <v>354</v>
       </c>
-      <c r="AH15" s="238" t="s">
+      <c r="AH15" s="212" t="s">
         <v>355</v>
       </c>
-      <c r="AI15" s="237"/>
+      <c r="AI15" s="211"/>
     </row>
     <row r="16" spans="3:35" ht="15" thickBot="1">
-      <c r="C16" s="321" t="s">
+      <c r="C16" s="271" t="s">
         <v>575</v>
       </c>
-      <c r="D16" s="258" t="s">
+      <c r="D16" s="227" t="s">
         <v>202</v>
       </c>
-      <c r="E16" s="257" t="s">
+      <c r="E16" s="226" t="s">
         <v>286</v>
       </c>
-      <c r="F16" s="258" t="s">
+      <c r="F16" s="227" t="s">
         <v>206</v>
       </c>
-      <c r="G16" s="257" t="s">
+      <c r="G16" s="226" t="s">
         <v>287</v>
       </c>
-      <c r="H16" s="259">
+      <c r="H16" s="228">
         <v>3003000</v>
       </c>
-      <c r="I16" s="236" t="s">
+      <c r="I16" s="210" t="s">
         <v>374</v>
       </c>
       <c r="J16" s="51"/>
-      <c r="K16" s="236"/>
-      <c r="L16" s="262" t="s">
+      <c r="K16" s="210"/>
+      <c r="L16" s="231" t="s">
         <v>300</v>
       </c>
       <c r="M16" s="52"/>
-      <c r="N16" s="236"/>
-      <c r="O16" s="236" t="s">
+      <c r="N16" s="210"/>
+      <c r="O16" s="210" t="s">
         <v>561</v>
       </c>
-      <c r="P16" s="260"/>
-      <c r="Q16" s="236" t="s">
+      <c r="P16" s="229"/>
+      <c r="Q16" s="210" t="s">
         <v>562</v>
       </c>
-      <c r="R16" s="260" t="s">
+      <c r="R16" s="229" t="s">
         <v>563</v>
       </c>
-      <c r="S16" s="236" t="s">
+      <c r="S16" s="210" t="s">
         <v>573</v>
       </c>
-      <c r="T16" s="256"/>
-      <c r="V16" s="237"/>
+      <c r="T16" s="225"/>
+      <c r="V16" s="211"/>
       <c r="W16" s="132"/>
-      <c r="X16" s="244"/>
-      <c r="Y16" s="236" t="s">
+      <c r="X16" s="217"/>
+      <c r="Y16" s="210" t="s">
         <v>564</v>
       </c>
-      <c r="Z16" s="260"/>
-      <c r="AA16" s="236" t="s">
+      <c r="Z16" s="229"/>
+      <c r="AA16" s="210" t="s">
         <v>565</v>
       </c>
-      <c r="AB16" s="260" t="s">
+      <c r="AB16" s="229" t="s">
         <v>566</v>
       </c>
-      <c r="AC16" s="236" t="s">
+      <c r="AC16" s="210" t="s">
         <v>573</v>
       </c>
-      <c r="AD16" s="256"/>
-      <c r="AE16" s="256"/>
-      <c r="AF16" s="256"/>
-      <c r="AG16" s="256"/>
-      <c r="AH16" s="256"/>
-      <c r="AI16" s="237"/>
+      <c r="AD16" s="225"/>
+      <c r="AE16" s="225"/>
+      <c r="AF16" s="225"/>
+      <c r="AG16" s="225"/>
+      <c r="AH16" s="225"/>
+      <c r="AI16" s="211"/>
     </row>
     <row r="17" spans="3:35" ht="15" thickBot="1">
-      <c r="C17" s="244"/>
-      <c r="D17" s="236"/>
-      <c r="E17" s="236"/>
-      <c r="F17" s="236"/>
-      <c r="G17" s="236"/>
-      <c r="H17" s="236"/>
-      <c r="I17" s="236"/>
-      <c r="J17" s="236"/>
-      <c r="K17" s="236"/>
-      <c r="L17" s="236"/>
-      <c r="M17" s="237"/>
-      <c r="N17" s="236"/>
-      <c r="O17" s="244"/>
-      <c r="P17" s="236"/>
-      <c r="Q17" s="236"/>
-      <c r="R17" s="236"/>
-      <c r="S17" s="236"/>
-      <c r="T17" s="236"/>
-      <c r="U17" s="236"/>
-      <c r="V17" s="237"/>
+      <c r="C17" s="217"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="210"/>
+      <c r="G17" s="210"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="210"/>
+      <c r="J17" s="210"/>
+      <c r="K17" s="210"/>
+      <c r="L17" s="210"/>
+      <c r="M17" s="211"/>
+      <c r="N17" s="210"/>
+      <c r="O17" s="217"/>
+      <c r="P17" s="210"/>
+      <c r="Q17" s="210"/>
+      <c r="R17" s="210"/>
+      <c r="S17" s="210"/>
+      <c r="T17" s="210"/>
+      <c r="U17" s="210"/>
+      <c r="V17" s="211"/>
       <c r="W17" s="132"/>
-      <c r="X17" s="244"/>
-      <c r="Y17" s="236"/>
-      <c r="Z17" s="236"/>
-      <c r="AA17" s="236"/>
-      <c r="AB17" s="236"/>
-      <c r="AC17" s="236"/>
-      <c r="AD17" s="236"/>
-      <c r="AE17" s="256"/>
-      <c r="AF17" s="256"/>
-      <c r="AG17" s="256"/>
-      <c r="AH17" s="256"/>
-      <c r="AI17" s="237"/>
+      <c r="X17" s="217"/>
+      <c r="Y17" s="210"/>
+      <c r="Z17" s="210"/>
+      <c r="AA17" s="210"/>
+      <c r="AB17" s="210"/>
+      <c r="AC17" s="210"/>
+      <c r="AD17" s="210"/>
+      <c r="AE17" s="225"/>
+      <c r="AF17" s="225"/>
+      <c r="AG17" s="225"/>
+      <c r="AH17" s="225"/>
+      <c r="AI17" s="211"/>
     </row>
     <row r="18" spans="3:35" ht="15" thickBot="1">
-      <c r="C18" s="244"/>
-      <c r="D18" s="257" t="s">
+      <c r="C18" s="217"/>
+      <c r="D18" s="226" t="s">
         <v>288</v>
       </c>
-      <c r="E18" s="261"/>
-      <c r="F18" s="236" t="s">
+      <c r="E18" s="230"/>
+      <c r="F18" s="210" t="s">
         <v>289</v>
       </c>
-      <c r="G18" s="236"/>
-      <c r="H18" s="236"/>
-      <c r="I18" s="236"/>
-      <c r="J18" s="236"/>
-      <c r="K18" s="262" t="s">
+      <c r="G18" s="210"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="210"/>
+      <c r="K18" s="231" t="s">
         <v>463</v>
       </c>
-      <c r="L18" s="236"/>
-      <c r="M18" s="237"/>
-      <c r="N18" s="236"/>
-      <c r="O18" s="244"/>
-      <c r="P18" s="263" t="s">
+      <c r="L18" s="210"/>
+      <c r="M18" s="211"/>
+      <c r="N18" s="210"/>
+      <c r="O18" s="217"/>
+      <c r="P18" s="232" t="s">
         <v>356</v>
       </c>
-      <c r="Q18" s="264"/>
-      <c r="R18" s="236"/>
-      <c r="S18" s="236"/>
+      <c r="Q18" s="233"/>
+      <c r="R18" s="210"/>
+      <c r="S18" s="210"/>
       <c r="T18" s="132"/>
       <c r="U18" s="132"/>
-      <c r="V18" s="237"/>
+      <c r="V18" s="211"/>
       <c r="W18" s="132"/>
-      <c r="X18" s="244"/>
-      <c r="Y18" s="236"/>
-      <c r="Z18" s="236"/>
-      <c r="AA18" s="236"/>
-      <c r="AB18" s="236"/>
-      <c r="AC18" s="236"/>
-      <c r="AD18" s="236"/>
-      <c r="AE18" s="256"/>
-      <c r="AF18" s="256"/>
-      <c r="AG18" s="256"/>
-      <c r="AH18" s="265" t="s">
+      <c r="X18" s="217"/>
+      <c r="Y18" s="210"/>
+      <c r="Z18" s="210"/>
+      <c r="AA18" s="210"/>
+      <c r="AB18" s="210"/>
+      <c r="AC18" s="210"/>
+      <c r="AD18" s="210"/>
+      <c r="AE18" s="225"/>
+      <c r="AF18" s="225"/>
+      <c r="AG18" s="225"/>
+      <c r="AH18" s="234" t="s">
         <v>359</v>
       </c>
-      <c r="AI18" s="237"/>
+      <c r="AI18" s="211"/>
     </row>
     <row r="19" spans="3:35">
-      <c r="C19" s="244"/>
-      <c r="D19" s="236"/>
-      <c r="E19" s="236"/>
-      <c r="F19" s="236"/>
-      <c r="G19" s="236"/>
-      <c r="H19" s="236"/>
-      <c r="I19" s="236"/>
-      <c r="J19" s="236"/>
-      <c r="K19" s="236"/>
-      <c r="L19" s="236"/>
-      <c r="M19" s="237"/>
-      <c r="N19" s="236"/>
-      <c r="O19" s="244"/>
+      <c r="C19" s="217"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="210"/>
+      <c r="J19" s="210"/>
+      <c r="K19" s="210"/>
+      <c r="L19" s="210"/>
+      <c r="M19" s="211"/>
+      <c r="N19" s="210"/>
+      <c r="O19" s="217"/>
       <c r="P19" s="132"/>
       <c r="Q19" s="132"/>
       <c r="R19" s="132"/>
       <c r="S19" s="132"/>
       <c r="T19" s="132"/>
-      <c r="U19" s="236"/>
-      <c r="V19" s="237"/>
+      <c r="U19" s="210"/>
+      <c r="V19" s="211"/>
       <c r="W19" s="132"/>
-      <c r="X19" s="244"/>
-      <c r="Y19" s="266" t="s">
+      <c r="X19" s="217"/>
+      <c r="Y19" s="290" t="s">
         <v>157</v>
       </c>
-      <c r="Z19" s="266" t="s">
+      <c r="Z19" s="290" t="s">
         <v>4</v>
       </c>
-      <c r="AA19" s="267" t="s">
+      <c r="AA19" s="297" t="s">
         <v>1</v>
       </c>
-      <c r="AB19" s="266" t="s">
+      <c r="AB19" s="290" t="s">
         <v>2</v>
       </c>
-      <c r="AC19" s="266" t="s">
+      <c r="AC19" s="290" t="s">
         <v>169</v>
       </c>
-      <c r="AD19" s="266" t="s">
+      <c r="AD19" s="290" t="s">
         <v>341</v>
       </c>
-      <c r="AE19" s="266" t="s">
+      <c r="AE19" s="290" t="s">
         <v>327</v>
       </c>
-      <c r="AF19" s="266" t="s">
+      <c r="AF19" s="290" t="s">
         <v>282</v>
       </c>
-      <c r="AG19" s="266"/>
-      <c r="AH19" s="266"/>
-      <c r="AI19" s="237"/>
+      <c r="AG19" s="290"/>
+      <c r="AH19" s="290"/>
+      <c r="AI19" s="211"/>
     </row>
     <row r="20" spans="3:35" ht="15" thickBot="1">
-      <c r="C20" s="244"/>
-      <c r="D20" s="268"/>
-      <c r="E20" s="268"/>
-      <c r="F20" s="268"/>
-      <c r="G20" s="268"/>
-      <c r="H20" s="268"/>
-      <c r="I20" s="268"/>
-      <c r="J20" s="268"/>
-      <c r="K20" s="268"/>
-      <c r="L20" s="236"/>
-      <c r="M20" s="237"/>
-      <c r="N20" s="236"/>
-      <c r="O20" s="244"/>
-      <c r="P20" s="269" t="s">
+      <c r="C20" s="217"/>
+      <c r="D20" s="235"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="235"/>
+      <c r="K20" s="235"/>
+      <c r="L20" s="210"/>
+      <c r="M20" s="211"/>
+      <c r="N20" s="210"/>
+      <c r="O20" s="217"/>
+      <c r="P20" s="236" t="s">
         <v>310</v>
       </c>
-      <c r="Q20" s="269" t="s">
+      <c r="Q20" s="236" t="s">
         <v>312</v>
       </c>
-      <c r="R20" s="269" t="s">
+      <c r="R20" s="236" t="s">
         <v>325</v>
       </c>
-      <c r="S20" s="269" t="s">
+      <c r="S20" s="236" t="s">
         <v>324</v>
       </c>
-      <c r="T20" s="269" t="s">
+      <c r="T20" s="236" t="s">
         <v>327</v>
       </c>
-      <c r="V20" s="237"/>
+      <c r="V20" s="211"/>
       <c r="W20" s="132"/>
-      <c r="X20" s="244"/>
-      <c r="Y20" s="266"/>
-      <c r="Z20" s="266"/>
-      <c r="AA20" s="267"/>
-      <c r="AB20" s="266"/>
-      <c r="AC20" s="266"/>
-      <c r="AD20" s="270"/>
-      <c r="AE20" s="270"/>
-      <c r="AF20" s="270"/>
-      <c r="AG20" s="270"/>
-      <c r="AH20" s="270"/>
-      <c r="AI20" s="237"/>
+      <c r="X20" s="217"/>
+      <c r="Y20" s="290"/>
+      <c r="Z20" s="290"/>
+      <c r="AA20" s="297"/>
+      <c r="AB20" s="290"/>
+      <c r="AC20" s="290"/>
+      <c r="AD20" s="291"/>
+      <c r="AE20" s="291"/>
+      <c r="AF20" s="291"/>
+      <c r="AG20" s="291"/>
+      <c r="AH20" s="291"/>
+      <c r="AI20" s="211"/>
     </row>
     <row r="21" spans="3:35" ht="15" thickBot="1">
-      <c r="C21" s="244"/>
+      <c r="C21" s="217"/>
       <c r="D21" s="51"/>
-      <c r="E21" s="262" t="s">
+      <c r="E21" s="231" t="s">
         <v>395</v>
       </c>
-      <c r="F21" s="262" t="s">
+      <c r="F21" s="231" t="s">
         <v>394</v>
       </c>
-      <c r="G21" s="236"/>
-      <c r="H21" s="262" t="s">
+      <c r="G21" s="210"/>
+      <c r="H21" s="231" t="s">
         <v>294</v>
       </c>
-      <c r="I21" s="236"/>
-      <c r="J21" s="236"/>
-      <c r="K21" s="236"/>
-      <c r="L21" s="236"/>
-      <c r="M21" s="237"/>
-      <c r="N21" s="236"/>
-      <c r="O21" s="244"/>
-      <c r="P21" s="271" t="s">
+      <c r="I21" s="210"/>
+      <c r="J21" s="210"/>
+      <c r="K21" s="210"/>
+      <c r="L21" s="210"/>
+      <c r="M21" s="211"/>
+      <c r="N21" s="210"/>
+      <c r="O21" s="217"/>
+      <c r="P21" s="237" t="s">
         <v>311</v>
       </c>
-      <c r="Q21" s="272" t="s">
+      <c r="Q21" s="238" t="s">
         <v>313</v>
       </c>
-      <c r="R21" s="272" t="s">
+      <c r="R21" s="238" t="s">
         <v>314</v>
       </c>
-      <c r="S21" s="271" t="s">
+      <c r="S21" s="237" t="s">
         <v>311</v>
       </c>
-      <c r="T21" s="273" t="s">
+      <c r="T21" s="239" t="s">
         <v>295</v>
       </c>
-      <c r="V21" s="237"/>
+      <c r="V21" s="211"/>
       <c r="W21" s="132"/>
-      <c r="X21" s="244"/>
-      <c r="Y21" s="239" t="s">
+      <c r="X21" s="217"/>
+      <c r="Y21" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="Z21" s="239" t="s">
+      <c r="Z21" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="AA21" s="239"/>
-      <c r="AB21" s="239" t="s">
+      <c r="AA21" s="213"/>
+      <c r="AB21" s="213" t="s">
         <v>14</v>
       </c>
-      <c r="AC21" s="274" t="s">
+      <c r="AC21" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="AD21" s="275" t="s">
+      <c r="AD21" s="241" t="s">
         <v>342</v>
       </c>
-      <c r="AE21" s="240" t="s">
+      <c r="AE21" s="214" t="s">
         <v>296</v>
       </c>
-      <c r="AF21" s="276" t="s">
+      <c r="AF21" s="292" t="s">
         <v>343</v>
       </c>
-      <c r="AG21" s="277"/>
-      <c r="AH21" s="278"/>
-      <c r="AI21" s="237"/>
+      <c r="AG21" s="293"/>
+      <c r="AH21" s="294"/>
+      <c r="AI21" s="211"/>
     </row>
     <row r="22" spans="3:35" ht="15" thickBot="1">
-      <c r="C22" s="244"/>
-      <c r="D22" s="236"/>
-      <c r="E22" s="236"/>
-      <c r="F22" s="236"/>
-      <c r="G22" s="236"/>
-      <c r="H22" s="236"/>
-      <c r="I22" s="236"/>
-      <c r="J22" s="236"/>
-      <c r="K22" s="236"/>
-      <c r="L22" s="236"/>
-      <c r="M22" s="237"/>
-      <c r="N22" s="236"/>
-      <c r="O22" s="244"/>
-      <c r="P22" s="281" t="s">
+      <c r="C22" s="217"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="210"/>
+      <c r="F22" s="210"/>
+      <c r="G22" s="210"/>
+      <c r="H22" s="210"/>
+      <c r="I22" s="210"/>
+      <c r="J22" s="210"/>
+      <c r="K22" s="210"/>
+      <c r="L22" s="210"/>
+      <c r="M22" s="211"/>
+      <c r="N22" s="210"/>
+      <c r="O22" s="217"/>
+      <c r="P22" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="Q22" s="314" t="s">
+      <c r="Q22" s="268" t="s">
         <v>315</v>
       </c>
-      <c r="R22" s="314" t="s">
+      <c r="R22" s="268" t="s">
         <v>316</v>
       </c>
-      <c r="S22" s="281" t="s">
+      <c r="S22" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="T22" s="273" t="s">
+      <c r="T22" s="239" t="s">
         <v>295</v>
       </c>
-      <c r="V22" s="237"/>
+      <c r="V22" s="211"/>
       <c r="W22" s="132"/>
-      <c r="X22" s="244"/>
-      <c r="Y22" s="241" t="s">
+      <c r="X22" s="217"/>
+      <c r="Y22" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="242" t="s">
+      <c r="Z22" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="AA22" s="242" t="s">
+      <c r="AA22" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="AB22" s="242" t="s">
+      <c r="AB22" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="AC22" s="281" t="s">
+      <c r="AC22" s="244" t="s">
         <v>176</v>
       </c>
-      <c r="AD22" s="275">
+      <c r="AD22" s="241">
         <v>2305.1</v>
       </c>
-      <c r="AE22" s="243" t="s">
+      <c r="AE22" s="216" t="s">
         <v>295</v>
       </c>
-      <c r="AF22" s="282"/>
-      <c r="AG22" s="283"/>
-      <c r="AH22" s="284"/>
-      <c r="AI22" s="237"/>
+      <c r="AF22" s="276"/>
+      <c r="AG22" s="277"/>
+      <c r="AH22" s="278"/>
+      <c r="AI22" s="211"/>
     </row>
     <row r="23" spans="3:35" ht="15" thickBot="1">
-      <c r="C23" s="244"/>
-      <c r="D23" s="269" t="s">
+      <c r="C23" s="217"/>
+      <c r="D23" s="236" t="s">
         <v>238</v>
       </c>
       <c r="E23" s="288" t="s">
         <v>193</v>
       </c>
       <c r="F23" s="289"/>
-      <c r="G23" s="269" t="s">
+      <c r="G23" s="236" t="s">
         <v>291</v>
       </c>
-      <c r="H23" s="269" t="s">
+      <c r="H23" s="236" t="s">
         <v>393</v>
       </c>
-      <c r="I23" s="269" t="s">
+      <c r="I23" s="236" t="s">
         <v>290</v>
       </c>
-      <c r="J23" s="269" t="s">
+      <c r="J23" s="236" t="s">
         <v>308</v>
       </c>
-      <c r="K23" s="301" t="s">
+      <c r="K23" s="255" t="s">
         <v>327</v>
       </c>
-      <c r="L23" s="236"/>
+      <c r="L23" s="210"/>
       <c r="M23" s="52"/>
-      <c r="N23" s="236"/>
-      <c r="O23" s="244"/>
-      <c r="P23" s="271" t="s">
+      <c r="N23" s="210"/>
+      <c r="O23" s="217"/>
+      <c r="P23" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="Q23" s="285" t="s">
+      <c r="Q23" s="245" t="s">
         <v>315</v>
       </c>
-      <c r="R23" s="285" t="s">
+      <c r="R23" s="245" t="s">
         <v>52</v>
       </c>
-      <c r="S23" s="271" t="s">
+      <c r="S23" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="T23" s="273" t="s">
+      <c r="T23" s="239" t="s">
         <v>295</v>
       </c>
-      <c r="V23" s="237"/>
+      <c r="V23" s="211"/>
       <c r="W23" s="132"/>
-      <c r="X23" s="244"/>
-      <c r="Y23" s="245"/>
-      <c r="Z23" s="246" t="s">
+      <c r="X23" s="217"/>
+      <c r="Y23" s="280"/>
+      <c r="Z23" s="218" t="s">
         <v>32</v>
       </c>
-      <c r="AA23" s="246" t="s">
+      <c r="AA23" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="AB23" s="246" t="s">
+      <c r="AB23" s="218" t="s">
         <v>183</v>
       </c>
-      <c r="AC23" s="286" t="s">
+      <c r="AC23" s="246" t="s">
         <v>183</v>
       </c>
-      <c r="AD23" s="275">
+      <c r="AD23" s="241">
         <v>2035.2</v>
       </c>
-      <c r="AE23" s="247"/>
-      <c r="AF23" s="282"/>
-      <c r="AG23" s="283"/>
-      <c r="AH23" s="284"/>
-      <c r="AI23" s="237"/>
+      <c r="AE23" s="219"/>
+      <c r="AF23" s="276"/>
+      <c r="AG23" s="277"/>
+      <c r="AH23" s="278"/>
+      <c r="AI23" s="211"/>
     </row>
     <row r="24" spans="3:35" ht="15" thickBot="1">
-      <c r="C24" s="244"/>
-      <c r="D24" s="271" t="s">
+      <c r="C24" s="217"/>
+      <c r="D24" s="237" t="s">
         <v>384</v>
       </c>
-      <c r="E24" s="272" t="s">
+      <c r="E24" s="238" t="s">
         <v>293</v>
       </c>
-      <c r="F24" s="272"/>
+      <c r="F24" s="238"/>
       <c r="G24" s="133" t="s">
         <v>298</v>
       </c>
@@ -17889,58 +17889,58 @@
       <c r="J24" s="133" t="s">
         <v>401</v>
       </c>
-      <c r="K24" s="302"/>
-      <c r="L24" s="236"/>
+      <c r="K24" s="256"/>
+      <c r="L24" s="210"/>
       <c r="M24" s="52"/>
-      <c r="N24" s="236"/>
-      <c r="O24" s="244"/>
-      <c r="P24" s="271" t="s">
+      <c r="N24" s="210"/>
+      <c r="O24" s="217"/>
+      <c r="P24" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="Q24" s="272" t="s">
+      <c r="Q24" s="238" t="s">
         <v>315</v>
       </c>
-      <c r="R24" s="272" t="s">
+      <c r="R24" s="238" t="s">
         <v>54</v>
       </c>
-      <c r="S24" s="271" t="s">
+      <c r="S24" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="T24" s="273" t="s">
+      <c r="T24" s="239" t="s">
         <v>295</v>
       </c>
-      <c r="V24" s="237"/>
+      <c r="V24" s="211"/>
       <c r="W24" s="132"/>
-      <c r="X24" s="244"/>
-      <c r="Y24" s="245"/>
-      <c r="Z24" s="242" t="s">
+      <c r="X24" s="217"/>
+      <c r="Y24" s="280"/>
+      <c r="Z24" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="AA24" s="242" t="s">
+      <c r="AA24" s="215" t="s">
         <v>13</v>
       </c>
-      <c r="AB24" s="242" t="s">
+      <c r="AB24" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="AC24" s="281" t="s">
+      <c r="AC24" s="244" t="s">
         <v>112</v>
       </c>
-      <c r="AD24" s="287"/>
-      <c r="AE24" s="248"/>
-      <c r="AF24" s="282"/>
-      <c r="AG24" s="283"/>
-      <c r="AH24" s="284"/>
-      <c r="AI24" s="237"/>
+      <c r="AD24" s="247"/>
+      <c r="AE24" s="220"/>
+      <c r="AF24" s="276"/>
+      <c r="AG24" s="277"/>
+      <c r="AH24" s="278"/>
+      <c r="AI24" s="211"/>
     </row>
     <row r="25" spans="3:35" ht="15" thickBot="1">
-      <c r="C25" s="244"/>
-      <c r="D25" s="271" t="s">
+      <c r="C25" s="217"/>
+      <c r="D25" s="237" t="s">
         <v>396</v>
       </c>
-      <c r="E25" s="272" t="s">
+      <c r="E25" s="238" t="s">
         <v>293</v>
       </c>
-      <c r="F25" s="272"/>
+      <c r="F25" s="238"/>
       <c r="G25" s="133" t="s">
         <v>298</v>
       </c>
@@ -17953,122 +17953,122 @@
       <c r="J25" s="133" t="s">
         <v>401</v>
       </c>
-      <c r="K25" s="302"/>
-      <c r="L25" s="236"/>
+      <c r="K25" s="256"/>
+      <c r="L25" s="210"/>
       <c r="M25" s="52"/>
-      <c r="N25" s="236"/>
-      <c r="O25" s="244"/>
-      <c r="P25" s="271" t="s">
+      <c r="N25" s="210"/>
+      <c r="O25" s="217"/>
+      <c r="P25" s="237" t="s">
         <v>39</v>
       </c>
-      <c r="Q25" s="272" t="s">
+      <c r="Q25" s="238" t="s">
         <v>315</v>
       </c>
-      <c r="R25" s="272" t="s">
+      <c r="R25" s="238" t="s">
         <v>56</v>
       </c>
-      <c r="S25" s="271" t="s">
+      <c r="S25" s="237" t="s">
         <v>39</v>
       </c>
-      <c r="T25" s="273" t="s">
+      <c r="T25" s="239" t="s">
         <v>295</v>
       </c>
-      <c r="V25" s="237"/>
+      <c r="V25" s="211"/>
       <c r="W25" s="132"/>
-      <c r="X25" s="244"/>
-      <c r="Y25" s="245"/>
-      <c r="Z25" s="242" t="s">
+      <c r="X25" s="217"/>
+      <c r="Y25" s="280"/>
+      <c r="Z25" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="AA25" s="242" t="s">
+      <c r="AA25" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="AB25" s="242" t="s">
+      <c r="AB25" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="AC25" s="281" t="s">
+      <c r="AC25" s="244" t="s">
         <v>53</v>
       </c>
-      <c r="AD25" s="287"/>
-      <c r="AE25" s="248"/>
-      <c r="AF25" s="282"/>
-      <c r="AG25" s="283"/>
-      <c r="AH25" s="284"/>
-      <c r="AI25" s="237"/>
+      <c r="AD25" s="247"/>
+      <c r="AE25" s="220"/>
+      <c r="AF25" s="276"/>
+      <c r="AG25" s="277"/>
+      <c r="AH25" s="278"/>
+      <c r="AI25" s="211"/>
     </row>
     <row r="26" spans="3:35" ht="15" thickBot="1">
-      <c r="C26" s="244"/>
-      <c r="D26" s="279" t="s">
+      <c r="C26" s="217"/>
+      <c r="D26" s="242" t="s">
         <v>397</v>
       </c>
-      <c r="E26" s="280" t="s">
+      <c r="E26" s="243" t="s">
         <v>293</v>
       </c>
-      <c r="F26" s="280"/>
-      <c r="G26" s="246" t="s">
+      <c r="F26" s="243"/>
+      <c r="G26" s="218" t="s">
         <v>298</v>
       </c>
-      <c r="H26" s="291">
+      <c r="H26" s="249">
         <v>43468</v>
       </c>
-      <c r="I26" s="291">
+      <c r="I26" s="249">
         <v>43468</v>
       </c>
-      <c r="J26" s="246" t="s">
+      <c r="J26" s="218" t="s">
         <v>292</v>
       </c>
-      <c r="K26" s="303"/>
-      <c r="L26" s="236"/>
+      <c r="K26" s="257"/>
+      <c r="L26" s="210"/>
       <c r="M26" s="52"/>
-      <c r="N26" s="236"/>
-      <c r="O26" s="244"/>
-      <c r="P26" s="271" t="s">
+      <c r="N26" s="210"/>
+      <c r="O26" s="217"/>
+      <c r="P26" s="237" t="s">
         <v>40</v>
       </c>
-      <c r="Q26" s="272" t="s">
+      <c r="Q26" s="238" t="s">
         <v>317</v>
       </c>
-      <c r="R26" s="272" t="s">
+      <c r="R26" s="238" t="s">
         <v>59</v>
       </c>
-      <c r="S26" s="271" t="s">
+      <c r="S26" s="237" t="s">
         <v>40</v>
       </c>
-      <c r="T26" s="273" t="s">
+      <c r="T26" s="239" t="s">
         <v>295</v>
       </c>
-      <c r="V26" s="237"/>
+      <c r="V26" s="211"/>
       <c r="W26" s="132"/>
-      <c r="X26" s="244"/>
-      <c r="Y26" s="245"/>
-      <c r="Z26" s="242" t="s">
+      <c r="X26" s="217"/>
+      <c r="Y26" s="280"/>
+      <c r="Z26" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="AA26" s="242" t="s">
+      <c r="AA26" s="215" t="s">
         <v>30</v>
       </c>
-      <c r="AB26" s="242" t="s">
+      <c r="AB26" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="AC26" s="281" t="s">
+      <c r="AC26" s="244" t="s">
         <v>55</v>
       </c>
-      <c r="AD26" s="287"/>
-      <c r="AE26" s="248"/>
-      <c r="AF26" s="282"/>
-      <c r="AG26" s="283"/>
-      <c r="AH26" s="284"/>
-      <c r="AI26" s="237"/>
+      <c r="AD26" s="247"/>
+      <c r="AE26" s="220"/>
+      <c r="AF26" s="276"/>
+      <c r="AG26" s="277"/>
+      <c r="AH26" s="278"/>
+      <c r="AI26" s="211"/>
     </row>
     <row r="27" spans="3:35" ht="15" thickBot="1">
-      <c r="C27" s="244"/>
-      <c r="D27" s="271" t="s">
+      <c r="C27" s="217"/>
+      <c r="D27" s="237" t="s">
         <v>398</v>
       </c>
-      <c r="E27" s="272" t="s">
+      <c r="E27" s="238" t="s">
         <v>293</v>
       </c>
-      <c r="F27" s="272"/>
+      <c r="F27" s="238"/>
       <c r="G27" s="133" t="s">
         <v>298</v>
       </c>
@@ -18081,60 +18081,60 @@
       <c r="J27" s="133" t="s">
         <v>354</v>
       </c>
-      <c r="K27" s="304" t="s">
+      <c r="K27" s="258" t="s">
         <v>408</v>
       </c>
-      <c r="L27" s="236"/>
+      <c r="L27" s="210"/>
       <c r="M27" s="52"/>
-      <c r="N27" s="236"/>
-      <c r="O27" s="244"/>
-      <c r="P27" s="271" t="s">
+      <c r="N27" s="210"/>
+      <c r="O27" s="217"/>
+      <c r="P27" s="237" t="s">
         <v>42</v>
       </c>
-      <c r="Q27" s="272" t="s">
+      <c r="Q27" s="238" t="s">
         <v>317</v>
       </c>
-      <c r="R27" s="272" t="s">
+      <c r="R27" s="238" t="s">
         <v>61</v>
       </c>
-      <c r="S27" s="271" t="s">
+      <c r="S27" s="237" t="s">
         <v>42</v>
       </c>
-      <c r="T27" s="290" t="s">
+      <c r="T27" s="248" t="s">
         <v>296</v>
       </c>
-      <c r="V27" s="237"/>
+      <c r="V27" s="211"/>
       <c r="W27" s="132"/>
-      <c r="X27" s="244"/>
-      <c r="Y27" s="249"/>
-      <c r="Z27" s="242" t="s">
+      <c r="X27" s="217"/>
+      <c r="Y27" s="281"/>
+      <c r="Z27" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="AA27" s="242" t="s">
+      <c r="AA27" s="215" t="s">
         <v>31</v>
       </c>
-      <c r="AB27" s="242" t="s">
+      <c r="AB27" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="AC27" s="281" t="s">
+      <c r="AC27" s="244" t="s">
         <v>264</v>
       </c>
-      <c r="AD27" s="287"/>
-      <c r="AE27" s="248"/>
-      <c r="AF27" s="282"/>
-      <c r="AG27" s="283"/>
-      <c r="AH27" s="284"/>
-      <c r="AI27" s="237"/>
+      <c r="AD27" s="247"/>
+      <c r="AE27" s="220"/>
+      <c r="AF27" s="276"/>
+      <c r="AG27" s="277"/>
+      <c r="AH27" s="278"/>
+      <c r="AI27" s="211"/>
     </row>
     <row r="28" spans="3:35" ht="15" thickBot="1">
-      <c r="C28" s="244"/>
-      <c r="D28" s="271" t="s">
+      <c r="C28" s="217"/>
+      <c r="D28" s="237" t="s">
         <v>399</v>
       </c>
-      <c r="E28" s="272" t="s">
+      <c r="E28" s="238" t="s">
         <v>293</v>
       </c>
-      <c r="F28" s="272"/>
+      <c r="F28" s="238"/>
       <c r="G28" s="133" t="s">
         <v>298</v>
       </c>
@@ -18147,184 +18147,184 @@
       <c r="J28" s="133" t="s">
         <v>354</v>
       </c>
-      <c r="K28" s="302" t="s">
+      <c r="K28" s="256" t="s">
         <v>346</v>
       </c>
-      <c r="L28" s="236"/>
+      <c r="L28" s="210"/>
       <c r="M28" s="52"/>
-      <c r="N28" s="236"/>
-      <c r="O28" s="244"/>
+      <c r="N28" s="210"/>
+      <c r="O28" s="217"/>
       <c r="P28" s="132"/>
       <c r="Q28" s="132"/>
       <c r="R28" s="132"/>
       <c r="S28" s="132"/>
       <c r="T28" s="132"/>
-      <c r="U28" s="236"/>
-      <c r="V28" s="237"/>
+      <c r="U28" s="210"/>
+      <c r="V28" s="211"/>
       <c r="W28" s="132"/>
-      <c r="X28" s="244"/>
-      <c r="Y28" s="241" t="s">
+      <c r="X28" s="217"/>
+      <c r="Y28" s="279" t="s">
         <v>16</v>
       </c>
-      <c r="Z28" s="242" t="s">
+      <c r="Z28" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="AA28" s="242" t="s">
+      <c r="AA28" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="AB28" s="242" t="s">
+      <c r="AB28" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="AC28" s="281" t="s">
+      <c r="AC28" s="244" t="s">
         <v>177</v>
       </c>
-      <c r="AD28" s="287"/>
-      <c r="AE28" s="248"/>
-      <c r="AF28" s="282"/>
-      <c r="AG28" s="283"/>
-      <c r="AH28" s="284"/>
-      <c r="AI28" s="237"/>
+      <c r="AD28" s="247"/>
+      <c r="AE28" s="220"/>
+      <c r="AF28" s="276"/>
+      <c r="AG28" s="277"/>
+      <c r="AH28" s="278"/>
+      <c r="AI28" s="211"/>
     </row>
     <row r="29" spans="3:35" ht="15" thickBot="1">
-      <c r="C29" s="244"/>
-      <c r="D29" s="292"/>
-      <c r="E29" s="293"/>
-      <c r="F29" s="293"/>
-      <c r="G29" s="236"/>
-      <c r="H29" s="236"/>
-      <c r="I29" s="294"/>
-      <c r="J29" s="294"/>
-      <c r="K29" s="236"/>
-      <c r="L29" s="236"/>
-      <c r="M29" s="237"/>
-      <c r="N29" s="236"/>
-      <c r="O29" s="244"/>
+      <c r="C29" s="217"/>
+      <c r="D29" s="250"/>
+      <c r="E29" s="251"/>
+      <c r="F29" s="251"/>
+      <c r="G29" s="210"/>
+      <c r="H29" s="210"/>
+      <c r="I29" s="252"/>
+      <c r="J29" s="252"/>
+      <c r="K29" s="210"/>
+      <c r="L29" s="210"/>
+      <c r="M29" s="211"/>
+      <c r="N29" s="210"/>
+      <c r="O29" s="217"/>
       <c r="P29" s="132"/>
       <c r="Q29" s="132"/>
       <c r="R29" s="132"/>
       <c r="S29" s="132"/>
       <c r="T29" s="132"/>
       <c r="U29" s="132"/>
-      <c r="V29" s="237"/>
+      <c r="V29" s="211"/>
       <c r="W29" s="132"/>
-      <c r="X29" s="244"/>
-      <c r="Y29" s="245"/>
-      <c r="Z29" s="242" t="s">
+      <c r="X29" s="217"/>
+      <c r="Y29" s="280"/>
+      <c r="Z29" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="AA29" s="242" t="s">
+      <c r="AA29" s="215" t="s">
         <v>13</v>
       </c>
-      <c r="AB29" s="242" t="s">
+      <c r="AB29" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="AC29" s="281" t="s">
+      <c r="AC29" s="244" t="s">
         <v>267</v>
       </c>
-      <c r="AD29" s="287"/>
-      <c r="AE29" s="248"/>
-      <c r="AF29" s="282"/>
-      <c r="AG29" s="283"/>
-      <c r="AH29" s="284"/>
-      <c r="AI29" s="237"/>
+      <c r="AD29" s="247"/>
+      <c r="AE29" s="220"/>
+      <c r="AF29" s="276"/>
+      <c r="AG29" s="277"/>
+      <c r="AH29" s="278"/>
+      <c r="AI29" s="211"/>
     </row>
     <row r="30" spans="3:35" ht="15" thickBot="1">
-      <c r="C30" s="244"/>
-      <c r="D30" s="292"/>
-      <c r="E30" s="293"/>
-      <c r="F30" s="293"/>
-      <c r="G30" s="236"/>
-      <c r="H30" s="236"/>
-      <c r="I30" s="294"/>
-      <c r="J30" s="294"/>
-      <c r="K30" s="236"/>
-      <c r="L30" s="236"/>
-      <c r="M30" s="237"/>
-      <c r="N30" s="236"/>
-      <c r="O30" s="244"/>
-      <c r="P30" s="236"/>
-      <c r="Q30" s="236"/>
-      <c r="R30" s="236"/>
-      <c r="S30" s="236"/>
+      <c r="C30" s="217"/>
+      <c r="D30" s="250"/>
+      <c r="E30" s="251"/>
+      <c r="F30" s="251"/>
+      <c r="G30" s="210"/>
+      <c r="H30" s="210"/>
+      <c r="I30" s="252"/>
+      <c r="J30" s="252"/>
+      <c r="K30" s="210"/>
+      <c r="L30" s="210"/>
+      <c r="M30" s="211"/>
+      <c r="N30" s="210"/>
+      <c r="O30" s="217"/>
+      <c r="P30" s="210"/>
+      <c r="Q30" s="210"/>
+      <c r="R30" s="210"/>
+      <c r="S30" s="210"/>
       <c r="T30" s="132"/>
       <c r="U30" s="132"/>
-      <c r="V30" s="237"/>
+      <c r="V30" s="211"/>
       <c r="W30" s="132"/>
-      <c r="X30" s="244"/>
-      <c r="Y30" s="245"/>
-      <c r="Z30" s="242" t="s">
+      <c r="X30" s="217"/>
+      <c r="Y30" s="280"/>
+      <c r="Z30" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="AA30" s="242" t="s">
+      <c r="AA30" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="AB30" s="242" t="s">
+      <c r="AB30" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="AC30" s="281" t="s">
+      <c r="AC30" s="244" t="s">
         <v>62</v>
       </c>
-      <c r="AD30" s="287"/>
-      <c r="AE30" s="248"/>
-      <c r="AF30" s="282"/>
-      <c r="AG30" s="283"/>
-      <c r="AH30" s="284"/>
-      <c r="AI30" s="237"/>
+      <c r="AD30" s="247"/>
+      <c r="AE30" s="220"/>
+      <c r="AF30" s="276"/>
+      <c r="AG30" s="277"/>
+      <c r="AH30" s="278"/>
+      <c r="AI30" s="211"/>
     </row>
     <row r="31" spans="3:35" ht="15" thickBot="1">
-      <c r="C31" s="244"/>
-      <c r="D31" s="292"/>
-      <c r="E31" s="293"/>
-      <c r="F31" s="293"/>
-      <c r="G31" s="236"/>
-      <c r="H31" s="236"/>
-      <c r="I31" s="294"/>
-      <c r="J31" s="294"/>
-      <c r="K31" s="236"/>
-      <c r="L31" s="236"/>
-      <c r="M31" s="237"/>
-      <c r="N31" s="236"/>
-      <c r="O31" s="250"/>
-      <c r="P31" s="251"/>
-      <c r="Q31" s="251"/>
-      <c r="R31" s="251"/>
-      <c r="S31" s="251"/>
-      <c r="T31" s="251"/>
-      <c r="U31" s="251"/>
-      <c r="V31" s="252"/>
+      <c r="C31" s="217"/>
+      <c r="D31" s="250"/>
+      <c r="E31" s="251"/>
+      <c r="F31" s="251"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="210"/>
+      <c r="I31" s="252"/>
+      <c r="J31" s="252"/>
+      <c r="K31" s="210"/>
+      <c r="L31" s="210"/>
+      <c r="M31" s="211"/>
+      <c r="N31" s="210"/>
+      <c r="O31" s="221"/>
+      <c r="P31" s="222"/>
+      <c r="Q31" s="222"/>
+      <c r="R31" s="222"/>
+      <c r="S31" s="222"/>
+      <c r="T31" s="222"/>
+      <c r="U31" s="222"/>
+      <c r="V31" s="223"/>
       <c r="W31" s="132"/>
-      <c r="X31" s="244"/>
-      <c r="Y31" s="245"/>
-      <c r="Z31" s="242" t="s">
+      <c r="X31" s="217"/>
+      <c r="Y31" s="280"/>
+      <c r="Z31" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="AA31" s="242"/>
-      <c r="AB31" s="242" t="s">
+      <c r="AA31" s="215"/>
+      <c r="AB31" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="AC31" s="281" t="s">
+      <c r="AC31" s="244" t="s">
         <v>19</v>
       </c>
-      <c r="AD31" s="287"/>
-      <c r="AE31" s="248"/>
-      <c r="AF31" s="282"/>
-      <c r="AG31" s="283"/>
-      <c r="AH31" s="284"/>
-      <c r="AI31" s="237"/>
+      <c r="AD31" s="247"/>
+      <c r="AE31" s="220"/>
+      <c r="AF31" s="276"/>
+      <c r="AG31" s="277"/>
+      <c r="AH31" s="278"/>
+      <c r="AI31" s="211"/>
     </row>
     <row r="32" spans="3:35" ht="15" thickBot="1">
-      <c r="C32" s="244"/>
-      <c r="D32" s="292"/>
-      <c r="E32" s="293"/>
-      <c r="F32" s="293"/>
-      <c r="G32" s="236"/>
-      <c r="H32" s="236"/>
-      <c r="I32" s="294"/>
-      <c r="J32" s="294"/>
-      <c r="K32" s="236"/>
-      <c r="L32" s="236"/>
-      <c r="M32" s="237"/>
-      <c r="N32" s="236"/>
+      <c r="C32" s="217"/>
+      <c r="D32" s="250"/>
+      <c r="E32" s="251"/>
+      <c r="F32" s="251"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="210"/>
+      <c r="I32" s="252"/>
+      <c r="J32" s="252"/>
+      <c r="K32" s="210"/>
+      <c r="L32" s="210"/>
+      <c r="M32" s="211"/>
+      <c r="N32" s="210"/>
       <c r="O32" s="132"/>
       <c r="P32" s="132"/>
       <c r="Q32" s="132"/>
@@ -18334,38 +18334,38 @@
       <c r="U32" s="132"/>
       <c r="V32" s="132"/>
       <c r="W32" s="132"/>
-      <c r="X32" s="244"/>
-      <c r="Y32" s="249"/>
-      <c r="Z32" s="242" t="s">
+      <c r="X32" s="217"/>
+      <c r="Y32" s="281"/>
+      <c r="Z32" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="AA32" s="242"/>
-      <c r="AB32" s="242" t="s">
+      <c r="AA32" s="215"/>
+      <c r="AB32" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="AC32" s="281" t="s">
+      <c r="AC32" s="244" t="s">
         <v>21</v>
       </c>
-      <c r="AD32" s="287"/>
-      <c r="AE32" s="248"/>
-      <c r="AF32" s="282"/>
-      <c r="AG32" s="283"/>
-      <c r="AH32" s="284"/>
-      <c r="AI32" s="237"/>
+      <c r="AD32" s="247"/>
+      <c r="AE32" s="220"/>
+      <c r="AF32" s="276"/>
+      <c r="AG32" s="277"/>
+      <c r="AH32" s="278"/>
+      <c r="AI32" s="211"/>
     </row>
     <row r="33" spans="3:35" ht="15" thickBot="1">
-      <c r="C33" s="244"/>
-      <c r="D33" s="292"/>
-      <c r="E33" s="293"/>
-      <c r="F33" s="293"/>
-      <c r="G33" s="236"/>
-      <c r="H33" s="236"/>
-      <c r="I33" s="294"/>
-      <c r="J33" s="294"/>
-      <c r="K33" s="236"/>
-      <c r="L33" s="236"/>
-      <c r="M33" s="237"/>
-      <c r="N33" s="236"/>
+      <c r="C33" s="217"/>
+      <c r="D33" s="250"/>
+      <c r="E33" s="251"/>
+      <c r="F33" s="251"/>
+      <c r="G33" s="210"/>
+      <c r="H33" s="210"/>
+      <c r="I33" s="252"/>
+      <c r="J33" s="252"/>
+      <c r="K33" s="210"/>
+      <c r="L33" s="210"/>
+      <c r="M33" s="211"/>
+      <c r="N33" s="210"/>
       <c r="O33" s="132"/>
       <c r="P33" s="132"/>
       <c r="Q33" s="132"/>
@@ -18375,40 +18375,40 @@
       <c r="U33" s="132"/>
       <c r="V33" s="132"/>
       <c r="W33" s="132"/>
-      <c r="X33" s="244"/>
-      <c r="Y33" s="241" t="s">
+      <c r="X33" s="217"/>
+      <c r="Y33" s="279" t="s">
         <v>22</v>
       </c>
-      <c r="Z33" s="242" t="s">
+      <c r="Z33" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="AA33" s="242"/>
-      <c r="AB33" s="242" t="s">
+      <c r="AA33" s="215"/>
+      <c r="AB33" s="215" t="s">
         <v>7</v>
       </c>
-      <c r="AC33" s="281" t="s">
+      <c r="AC33" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="AD33" s="287"/>
-      <c r="AE33" s="248"/>
-      <c r="AF33" s="282"/>
-      <c r="AG33" s="283"/>
-      <c r="AH33" s="284"/>
-      <c r="AI33" s="237"/>
+      <c r="AD33" s="247"/>
+      <c r="AE33" s="220"/>
+      <c r="AF33" s="276"/>
+      <c r="AG33" s="277"/>
+      <c r="AH33" s="278"/>
+      <c r="AI33" s="211"/>
     </row>
     <row r="34" spans="3:35" ht="15" thickBot="1">
-      <c r="C34" s="244"/>
-      <c r="D34" s="292"/>
-      <c r="E34" s="293"/>
-      <c r="F34" s="293"/>
-      <c r="G34" s="236"/>
-      <c r="H34" s="236"/>
-      <c r="I34" s="294"/>
-      <c r="J34" s="294"/>
-      <c r="K34" s="236"/>
-      <c r="L34" s="236"/>
-      <c r="M34" s="237"/>
-      <c r="N34" s="236"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="250"/>
+      <c r="E34" s="251"/>
+      <c r="F34" s="251"/>
+      <c r="G34" s="210"/>
+      <c r="H34" s="210"/>
+      <c r="I34" s="252"/>
+      <c r="J34" s="252"/>
+      <c r="K34" s="210"/>
+      <c r="L34" s="210"/>
+      <c r="M34" s="211"/>
+      <c r="N34" s="210"/>
       <c r="O34" s="132"/>
       <c r="P34" s="132"/>
       <c r="Q34" s="132"/>
@@ -18418,38 +18418,38 @@
       <c r="U34" s="132"/>
       <c r="V34" s="132"/>
       <c r="W34" s="132"/>
-      <c r="X34" s="244"/>
-      <c r="Y34" s="245"/>
-      <c r="Z34" s="242" t="s">
+      <c r="X34" s="217"/>
+      <c r="Y34" s="280"/>
+      <c r="Z34" s="215" t="s">
         <v>25</v>
       </c>
-      <c r="AA34" s="242"/>
-      <c r="AB34" s="242" t="s">
+      <c r="AA34" s="215"/>
+      <c r="AB34" s="215" t="s">
         <v>7</v>
       </c>
-      <c r="AC34" s="281" t="s">
+      <c r="AC34" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="AD34" s="287"/>
-      <c r="AE34" s="248"/>
-      <c r="AF34" s="282"/>
-      <c r="AG34" s="283"/>
-      <c r="AH34" s="284"/>
-      <c r="AI34" s="237"/>
+      <c r="AD34" s="247"/>
+      <c r="AE34" s="220"/>
+      <c r="AF34" s="276"/>
+      <c r="AG34" s="277"/>
+      <c r="AH34" s="278"/>
+      <c r="AI34" s="211"/>
     </row>
     <row r="35" spans="3:35" ht="15" thickBot="1">
-      <c r="C35" s="244"/>
-      <c r="D35" s="292"/>
-      <c r="E35" s="293"/>
-      <c r="F35" s="293"/>
-      <c r="G35" s="236"/>
-      <c r="H35" s="236"/>
-      <c r="I35" s="294"/>
-      <c r="J35" s="294"/>
-      <c r="K35" s="236"/>
-      <c r="L35" s="236"/>
-      <c r="M35" s="237"/>
-      <c r="N35" s="236"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="250"/>
+      <c r="E35" s="251"/>
+      <c r="F35" s="251"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="210"/>
+      <c r="I35" s="252"/>
+      <c r="J35" s="252"/>
+      <c r="K35" s="210"/>
+      <c r="L35" s="210"/>
+      <c r="M35" s="211"/>
+      <c r="N35" s="210"/>
       <c r="O35" s="132"/>
       <c r="P35" s="132"/>
       <c r="Q35" s="132"/>
@@ -18459,38 +18459,38 @@
       <c r="U35" s="132"/>
       <c r="V35" s="132"/>
       <c r="W35" s="132"/>
-      <c r="X35" s="244"/>
-      <c r="Y35" s="245"/>
-      <c r="Z35" s="242" t="s">
+      <c r="X35" s="217"/>
+      <c r="Y35" s="280"/>
+      <c r="Z35" s="215" t="s">
         <v>28</v>
       </c>
-      <c r="AA35" s="242"/>
-      <c r="AB35" s="242" t="s">
+      <c r="AA35" s="215"/>
+      <c r="AB35" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="AC35" s="281" t="s">
+      <c r="AC35" s="244" t="s">
         <v>178</v>
       </c>
-      <c r="AD35" s="287"/>
-      <c r="AE35" s="248"/>
-      <c r="AF35" s="282"/>
-      <c r="AG35" s="283"/>
-      <c r="AH35" s="284"/>
-      <c r="AI35" s="237"/>
+      <c r="AD35" s="247"/>
+      <c r="AE35" s="220"/>
+      <c r="AF35" s="276"/>
+      <c r="AG35" s="277"/>
+      <c r="AH35" s="278"/>
+      <c r="AI35" s="211"/>
     </row>
     <row r="36" spans="3:35" ht="15" thickBot="1">
-      <c r="C36" s="244"/>
-      <c r="D36" s="292"/>
-      <c r="E36" s="293"/>
-      <c r="F36" s="293"/>
-      <c r="G36" s="236"/>
-      <c r="H36" s="236"/>
-      <c r="I36" s="294"/>
-      <c r="J36" s="294"/>
-      <c r="K36" s="236"/>
-      <c r="L36" s="236"/>
-      <c r="M36" s="237"/>
-      <c r="N36" s="236"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="250"/>
+      <c r="E36" s="251"/>
+      <c r="F36" s="251"/>
+      <c r="G36" s="210"/>
+      <c r="H36" s="210"/>
+      <c r="I36" s="252"/>
+      <c r="J36" s="252"/>
+      <c r="K36" s="210"/>
+      <c r="L36" s="210"/>
+      <c r="M36" s="211"/>
+      <c r="N36" s="210"/>
       <c r="O36" s="132"/>
       <c r="P36" s="132"/>
       <c r="Q36" s="132"/>
@@ -18500,38 +18500,38 @@
       <c r="U36" s="132"/>
       <c r="V36" s="132"/>
       <c r="W36" s="132"/>
-      <c r="X36" s="244"/>
-      <c r="Y36" s="249"/>
-      <c r="Z36" s="242" t="s">
+      <c r="X36" s="217"/>
+      <c r="Y36" s="281"/>
+      <c r="Z36" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="AA36" s="242"/>
-      <c r="AB36" s="242" t="s">
+      <c r="AA36" s="215"/>
+      <c r="AB36" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="AC36" s="281" t="s">
+      <c r="AC36" s="244" t="s">
         <v>277</v>
       </c>
-      <c r="AD36" s="287"/>
-      <c r="AE36" s="253"/>
-      <c r="AF36" s="282"/>
-      <c r="AG36" s="283"/>
-      <c r="AH36" s="284"/>
-      <c r="AI36" s="237"/>
+      <c r="AD36" s="247"/>
+      <c r="AE36" s="224"/>
+      <c r="AF36" s="276"/>
+      <c r="AG36" s="277"/>
+      <c r="AH36" s="278"/>
+      <c r="AI36" s="211"/>
     </row>
     <row r="37" spans="3:35">
-      <c r="C37" s="244"/>
-      <c r="D37" s="292"/>
-      <c r="E37" s="293"/>
-      <c r="F37" s="293"/>
-      <c r="G37" s="236"/>
-      <c r="H37" s="236"/>
-      <c r="I37" s="294"/>
-      <c r="J37" s="294"/>
-      <c r="K37" s="236"/>
-      <c r="L37" s="236"/>
-      <c r="M37" s="237"/>
-      <c r="N37" s="236"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="250"/>
+      <c r="E37" s="251"/>
+      <c r="F37" s="251"/>
+      <c r="G37" s="210"/>
+      <c r="H37" s="210"/>
+      <c r="I37" s="252"/>
+      <c r="J37" s="252"/>
+      <c r="K37" s="210"/>
+      <c r="L37" s="210"/>
+      <c r="M37" s="211"/>
+      <c r="N37" s="210"/>
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
       <c r="Q37" s="132"/>
@@ -18541,32 +18541,32 @@
       <c r="U37" s="132"/>
       <c r="V37" s="132"/>
       <c r="W37" s="132"/>
-      <c r="X37" s="244"/>
-      <c r="Y37" s="236"/>
-      <c r="Z37" s="236"/>
-      <c r="AA37" s="236"/>
-      <c r="AB37" s="236"/>
-      <c r="AC37" s="236"/>
-      <c r="AD37" s="236"/>
-      <c r="AE37" s="236"/>
-      <c r="AF37" s="236"/>
-      <c r="AG37" s="236"/>
-      <c r="AH37" s="236"/>
-      <c r="AI37" s="237"/>
+      <c r="X37" s="217"/>
+      <c r="Y37" s="210"/>
+      <c r="Z37" s="210"/>
+      <c r="AA37" s="210"/>
+      <c r="AB37" s="210"/>
+      <c r="AC37" s="210"/>
+      <c r="AD37" s="210"/>
+      <c r="AE37" s="210"/>
+      <c r="AF37" s="210"/>
+      <c r="AG37" s="210"/>
+      <c r="AH37" s="210"/>
+      <c r="AI37" s="211"/>
     </row>
     <row r="38" spans="3:35">
-      <c r="C38" s="244"/>
-      <c r="D38" s="292"/>
-      <c r="E38" s="293"/>
-      <c r="F38" s="293"/>
-      <c r="G38" s="236"/>
-      <c r="H38" s="236"/>
-      <c r="I38" s="294"/>
-      <c r="J38" s="294"/>
-      <c r="K38" s="236"/>
-      <c r="L38" s="236"/>
-      <c r="M38" s="237"/>
-      <c r="N38" s="236"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="250"/>
+      <c r="E38" s="251"/>
+      <c r="F38" s="251"/>
+      <c r="G38" s="210"/>
+      <c r="H38" s="210"/>
+      <c r="I38" s="252"/>
+      <c r="J38" s="252"/>
+      <c r="K38" s="210"/>
+      <c r="L38" s="210"/>
+      <c r="M38" s="211"/>
+      <c r="N38" s="210"/>
       <c r="O38" s="132"/>
       <c r="P38" s="132"/>
       <c r="Q38" s="132"/>
@@ -18576,32 +18576,32 @@
       <c r="U38" s="132"/>
       <c r="V38" s="132"/>
       <c r="W38" s="132"/>
-      <c r="X38" s="244"/>
-      <c r="Y38" s="236"/>
-      <c r="Z38" s="236"/>
-      <c r="AA38" s="236"/>
-      <c r="AB38" s="236"/>
-      <c r="AC38" s="236"/>
-      <c r="AD38" s="236"/>
-      <c r="AE38" s="236"/>
-      <c r="AF38" s="236"/>
-      <c r="AG38" s="236"/>
-      <c r="AH38" s="236"/>
-      <c r="AI38" s="237"/>
+      <c r="X38" s="217"/>
+      <c r="Y38" s="210"/>
+      <c r="Z38" s="210"/>
+      <c r="AA38" s="210"/>
+      <c r="AB38" s="210"/>
+      <c r="AC38" s="210"/>
+      <c r="AD38" s="210"/>
+      <c r="AE38" s="210"/>
+      <c r="AF38" s="210"/>
+      <c r="AG38" s="210"/>
+      <c r="AH38" s="210"/>
+      <c r="AI38" s="211"/>
     </row>
     <row r="39" spans="3:35">
-      <c r="C39" s="244"/>
-      <c r="D39" s="292"/>
-      <c r="E39" s="293"/>
-      <c r="F39" s="293"/>
-      <c r="G39" s="236"/>
-      <c r="H39" s="236"/>
-      <c r="I39" s="294"/>
-      <c r="J39" s="294"/>
-      <c r="K39" s="236"/>
-      <c r="L39" s="236"/>
-      <c r="M39" s="237"/>
-      <c r="N39" s="236"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="250"/>
+      <c r="E39" s="251"/>
+      <c r="F39" s="251"/>
+      <c r="G39" s="210"/>
+      <c r="H39" s="210"/>
+      <c r="I39" s="252"/>
+      <c r="J39" s="252"/>
+      <c r="K39" s="210"/>
+      <c r="L39" s="210"/>
+      <c r="M39" s="211"/>
+      <c r="N39" s="210"/>
       <c r="O39" s="132"/>
       <c r="P39" s="132"/>
       <c r="Q39" s="132"/>
@@ -18611,36 +18611,36 @@
       <c r="U39" s="132"/>
       <c r="V39" s="132"/>
       <c r="W39" s="132"/>
-      <c r="X39" s="244"/>
-      <c r="Y39" s="295" t="s">
+      <c r="X39" s="217"/>
+      <c r="Y39" s="253" t="s">
         <v>358</v>
       </c>
-      <c r="Z39" s="236"/>
-      <c r="AA39" s="236"/>
-      <c r="AB39" s="236"/>
-      <c r="AC39" s="236"/>
-      <c r="AD39" s="236"/>
-      <c r="AE39" s="295" t="s">
+      <c r="Z39" s="210"/>
+      <c r="AA39" s="210"/>
+      <c r="AB39" s="210"/>
+      <c r="AC39" s="210"/>
+      <c r="AD39" s="210"/>
+      <c r="AE39" s="253" t="s">
         <v>357</v>
       </c>
-      <c r="AF39" s="236"/>
-      <c r="AG39" s="236"/>
-      <c r="AH39" s="236"/>
-      <c r="AI39" s="237"/>
+      <c r="AF39" s="210"/>
+      <c r="AG39" s="210"/>
+      <c r="AH39" s="210"/>
+      <c r="AI39" s="211"/>
     </row>
     <row r="40" spans="3:35" ht="36.75" customHeight="1">
-      <c r="C40" s="244"/>
-      <c r="D40" s="292"/>
-      <c r="E40" s="293"/>
-      <c r="F40" s="293"/>
-      <c r="G40" s="236"/>
-      <c r="H40" s="236"/>
-      <c r="I40" s="294"/>
-      <c r="J40" s="294"/>
-      <c r="K40" s="236"/>
-      <c r="L40" s="236"/>
-      <c r="M40" s="237"/>
-      <c r="N40" s="236"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="250"/>
+      <c r="E40" s="251"/>
+      <c r="F40" s="251"/>
+      <c r="G40" s="210"/>
+      <c r="H40" s="210"/>
+      <c r="I40" s="252"/>
+      <c r="J40" s="252"/>
+      <c r="K40" s="210"/>
+      <c r="L40" s="210"/>
+      <c r="M40" s="211"/>
+      <c r="N40" s="210"/>
       <c r="O40" s="132"/>
       <c r="P40" s="132"/>
       <c r="Q40" s="132"/>
@@ -18650,40 +18650,40 @@
       <c r="U40" s="132"/>
       <c r="V40" s="132"/>
       <c r="W40" s="132"/>
-      <c r="X40" s="244"/>
-      <c r="Y40" s="236"/>
-      <c r="Z40" s="236"/>
-      <c r="AA40" s="236"/>
-      <c r="AB40" s="236"/>
-      <c r="AC40" s="236"/>
-      <c r="AD40" s="236"/>
-      <c r="AE40" s="315">
+      <c r="X40" s="217"/>
+      <c r="Y40" s="210"/>
+      <c r="Z40" s="210"/>
+      <c r="AA40" s="210"/>
+      <c r="AB40" s="210"/>
+      <c r="AC40" s="210"/>
+      <c r="AD40" s="210"/>
+      <c r="AE40" s="269">
         <v>7</v>
       </c>
-      <c r="AF40" s="315">
+      <c r="AF40" s="269">
         <v>8</v>
       </c>
-      <c r="AG40" s="315">
+      <c r="AG40" s="269">
         <v>9</v>
       </c>
-      <c r="AH40" s="296" t="s">
+      <c r="AH40" s="282" t="s">
         <v>294</v>
       </c>
-      <c r="AI40" s="237"/>
+      <c r="AI40" s="211"/>
     </row>
     <row r="41" spans="3:35" ht="36.75" customHeight="1">
-      <c r="C41" s="244"/>
-      <c r="D41" s="236"/>
-      <c r="E41" s="236"/>
-      <c r="F41" s="236"/>
-      <c r="G41" s="236"/>
-      <c r="H41" s="236"/>
-      <c r="I41" s="236"/>
-      <c r="J41" s="236"/>
-      <c r="K41" s="236"/>
-      <c r="L41" s="236"/>
-      <c r="M41" s="237"/>
-      <c r="N41" s="236"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="210"/>
+      <c r="E41" s="210"/>
+      <c r="F41" s="210"/>
+      <c r="G41" s="210"/>
+      <c r="H41" s="210"/>
+      <c r="I41" s="210"/>
+      <c r="J41" s="210"/>
+      <c r="K41" s="210"/>
+      <c r="L41" s="210"/>
+      <c r="M41" s="211"/>
+      <c r="N41" s="210"/>
       <c r="O41" s="132"/>
       <c r="P41" s="132"/>
       <c r="Q41" s="132"/>
@@ -18693,38 +18693,38 @@
       <c r="U41" s="132"/>
       <c r="V41" s="132"/>
       <c r="W41" s="132"/>
-      <c r="X41" s="244"/>
-      <c r="Y41" s="236"/>
-      <c r="Z41" s="236"/>
-      <c r="AA41" s="236"/>
-      <c r="AB41" s="236"/>
-      <c r="AC41" s="236"/>
-      <c r="AD41" s="236"/>
-      <c r="AE41" s="315">
+      <c r="X41" s="217"/>
+      <c r="Y41" s="210"/>
+      <c r="Z41" s="210"/>
+      <c r="AA41" s="210"/>
+      <c r="AB41" s="210"/>
+      <c r="AC41" s="210"/>
+      <c r="AD41" s="210"/>
+      <c r="AE41" s="269">
         <v>4</v>
       </c>
-      <c r="AF41" s="315">
+      <c r="AF41" s="269">
         <v>5</v>
       </c>
-      <c r="AG41" s="315">
+      <c r="AG41" s="269">
         <v>6</v>
       </c>
-      <c r="AH41" s="297"/>
-      <c r="AI41" s="237"/>
+      <c r="AH41" s="283"/>
+      <c r="AI41" s="211"/>
     </row>
     <row r="42" spans="3:35" ht="36.75" customHeight="1">
-      <c r="C42" s="244"/>
-      <c r="D42" s="236"/>
-      <c r="E42" s="236"/>
-      <c r="F42" s="236"/>
-      <c r="G42" s="236"/>
-      <c r="H42" s="236"/>
-      <c r="I42" s="236"/>
-      <c r="J42" s="236"/>
-      <c r="K42" s="236"/>
-      <c r="L42" s="236"/>
-      <c r="M42" s="237"/>
-      <c r="N42" s="236"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="210"/>
+      <c r="E42" s="210"/>
+      <c r="F42" s="210"/>
+      <c r="G42" s="210"/>
+      <c r="H42" s="210"/>
+      <c r="I42" s="210"/>
+      <c r="J42" s="210"/>
+      <c r="K42" s="210"/>
+      <c r="L42" s="210"/>
+      <c r="M42" s="211"/>
+      <c r="N42" s="210"/>
       <c r="O42" s="132"/>
       <c r="P42" s="132"/>
       <c r="Q42" s="132"/>
@@ -18734,40 +18734,40 @@
       <c r="U42" s="132"/>
       <c r="V42" s="132"/>
       <c r="W42" s="132"/>
-      <c r="X42" s="244"/>
-      <c r="Y42" s="236"/>
-      <c r="Z42" s="236"/>
-      <c r="AA42" s="236"/>
-      <c r="AB42" s="236"/>
-      <c r="AC42" s="236"/>
-      <c r="AD42" s="236"/>
-      <c r="AE42" s="315">
+      <c r="X42" s="217"/>
+      <c r="Y42" s="210"/>
+      <c r="Z42" s="210"/>
+      <c r="AA42" s="210"/>
+      <c r="AB42" s="210"/>
+      <c r="AC42" s="210"/>
+      <c r="AD42" s="210"/>
+      <c r="AE42" s="269">
         <v>1</v>
       </c>
-      <c r="AF42" s="315">
+      <c r="AF42" s="269">
         <v>2</v>
       </c>
-      <c r="AG42" s="315">
+      <c r="AG42" s="269">
         <v>3</v>
       </c>
-      <c r="AH42" s="298" t="s">
+      <c r="AH42" s="284" t="s">
         <v>345</v>
       </c>
-      <c r="AI42" s="237"/>
+      <c r="AI42" s="211"/>
     </row>
     <row r="43" spans="3:35" ht="36.75" customHeight="1">
-      <c r="C43" s="244"/>
-      <c r="D43" s="236"/>
-      <c r="E43" s="236"/>
-      <c r="F43" s="236"/>
-      <c r="G43" s="236"/>
-      <c r="H43" s="236"/>
-      <c r="I43" s="236"/>
-      <c r="J43" s="236"/>
-      <c r="K43" s="236"/>
-      <c r="L43" s="236"/>
-      <c r="M43" s="237"/>
-      <c r="N43" s="236"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="210"/>
+      <c r="E43" s="210"/>
+      <c r="F43" s="210"/>
+      <c r="G43" s="210"/>
+      <c r="H43" s="210"/>
+      <c r="I43" s="210"/>
+      <c r="J43" s="210"/>
+      <c r="K43" s="210"/>
+      <c r="L43" s="210"/>
+      <c r="M43" s="211"/>
+      <c r="N43" s="210"/>
       <c r="O43" s="132"/>
       <c r="P43" s="132"/>
       <c r="Q43" s="132"/>
@@ -18777,36 +18777,36 @@
       <c r="U43" s="132"/>
       <c r="V43" s="132"/>
       <c r="W43" s="132"/>
-      <c r="X43" s="244"/>
-      <c r="Y43" s="236"/>
-      <c r="Z43" s="236"/>
-      <c r="AA43" s="236"/>
-      <c r="AB43" s="236"/>
-      <c r="AC43" s="236"/>
-      <c r="AD43" s="236"/>
-      <c r="AE43" s="316">
+      <c r="X43" s="217"/>
+      <c r="Y43" s="210"/>
+      <c r="Z43" s="210"/>
+      <c r="AA43" s="210"/>
+      <c r="AB43" s="210"/>
+      <c r="AC43" s="210"/>
+      <c r="AD43" s="210"/>
+      <c r="AE43" s="286">
         <v>0</v>
       </c>
-      <c r="AF43" s="317"/>
-      <c r="AG43" s="315" t="s">
+      <c r="AF43" s="287"/>
+      <c r="AG43" s="269" t="s">
         <v>344</v>
       </c>
-      <c r="AH43" s="299"/>
-      <c r="AI43" s="237"/>
+      <c r="AH43" s="285"/>
+      <c r="AI43" s="211"/>
     </row>
     <row r="44" spans="3:35">
-      <c r="C44" s="244"/>
-      <c r="D44" s="236"/>
-      <c r="E44" s="236"/>
-      <c r="F44" s="236"/>
-      <c r="G44" s="236"/>
-      <c r="H44" s="236"/>
-      <c r="I44" s="236"/>
-      <c r="J44" s="236"/>
-      <c r="K44" s="236"/>
-      <c r="L44" s="236"/>
-      <c r="M44" s="237"/>
-      <c r="N44" s="236"/>
+      <c r="C44" s="217"/>
+      <c r="D44" s="210"/>
+      <c r="E44" s="210"/>
+      <c r="F44" s="210"/>
+      <c r="G44" s="210"/>
+      <c r="H44" s="210"/>
+      <c r="I44" s="210"/>
+      <c r="J44" s="210"/>
+      <c r="K44" s="210"/>
+      <c r="L44" s="210"/>
+      <c r="M44" s="211"/>
+      <c r="N44" s="210"/>
       <c r="O44" s="132"/>
       <c r="P44" s="132"/>
       <c r="Q44" s="132"/>
@@ -18816,32 +18816,32 @@
       <c r="U44" s="132"/>
       <c r="V44" s="132"/>
       <c r="W44" s="132"/>
-      <c r="X44" s="244"/>
-      <c r="Y44" s="236"/>
-      <c r="Z44" s="236"/>
-      <c r="AA44" s="236"/>
-      <c r="AB44" s="236"/>
-      <c r="AC44" s="236"/>
-      <c r="AD44" s="236"/>
-      <c r="AE44" s="236"/>
-      <c r="AF44" s="236"/>
-      <c r="AG44" s="236"/>
-      <c r="AH44" s="236"/>
-      <c r="AI44" s="237"/>
+      <c r="X44" s="217"/>
+      <c r="Y44" s="210"/>
+      <c r="Z44" s="210"/>
+      <c r="AA44" s="210"/>
+      <c r="AB44" s="210"/>
+      <c r="AC44" s="210"/>
+      <c r="AD44" s="210"/>
+      <c r="AE44" s="210"/>
+      <c r="AF44" s="210"/>
+      <c r="AG44" s="210"/>
+      <c r="AH44" s="210"/>
+      <c r="AI44" s="211"/>
     </row>
     <row r="45" spans="3:35">
-      <c r="C45" s="244"/>
-      <c r="D45" s="236"/>
-      <c r="E45" s="236"/>
-      <c r="F45" s="236"/>
-      <c r="G45" s="236"/>
-      <c r="H45" s="236"/>
-      <c r="I45" s="236"/>
-      <c r="J45" s="236"/>
-      <c r="K45" s="236"/>
-      <c r="L45" s="236"/>
-      <c r="M45" s="237"/>
-      <c r="N45" s="236"/>
+      <c r="C45" s="217"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="210"/>
+      <c r="F45" s="210"/>
+      <c r="G45" s="210"/>
+      <c r="H45" s="210"/>
+      <c r="I45" s="210"/>
+      <c r="J45" s="210"/>
+      <c r="K45" s="210"/>
+      <c r="L45" s="210"/>
+      <c r="M45" s="211"/>
+      <c r="N45" s="210"/>
       <c r="O45" s="132"/>
       <c r="P45" s="132"/>
       <c r="Q45" s="132"/>
@@ -18851,32 +18851,32 @@
       <c r="U45" s="132"/>
       <c r="V45" s="132"/>
       <c r="W45" s="132"/>
-      <c r="X45" s="244"/>
-      <c r="Y45" s="236"/>
-      <c r="Z45" s="236"/>
-      <c r="AA45" s="236"/>
-      <c r="AB45" s="236"/>
-      <c r="AC45" s="236"/>
-      <c r="AD45" s="236"/>
-      <c r="AE45" s="236"/>
-      <c r="AF45" s="236"/>
-      <c r="AG45" s="236"/>
-      <c r="AH45" s="236"/>
-      <c r="AI45" s="237"/>
+      <c r="X45" s="217"/>
+      <c r="Y45" s="210"/>
+      <c r="Z45" s="210"/>
+      <c r="AA45" s="210"/>
+      <c r="AB45" s="210"/>
+      <c r="AC45" s="210"/>
+      <c r="AD45" s="210"/>
+      <c r="AE45" s="210"/>
+      <c r="AF45" s="210"/>
+      <c r="AG45" s="210"/>
+      <c r="AH45" s="210"/>
+      <c r="AI45" s="211"/>
     </row>
     <row r="46" spans="3:35" ht="21.75" customHeight="1">
-      <c r="C46" s="244"/>
-      <c r="D46" s="236"/>
-      <c r="E46" s="236"/>
-      <c r="F46" s="236"/>
-      <c r="G46" s="236"/>
-      <c r="H46" s="236"/>
-      <c r="I46" s="236"/>
-      <c r="J46" s="236"/>
-      <c r="K46" s="236"/>
-      <c r="L46" s="236"/>
-      <c r="M46" s="237"/>
-      <c r="N46" s="236"/>
+      <c r="C46" s="217"/>
+      <c r="D46" s="210"/>
+      <c r="E46" s="210"/>
+      <c r="F46" s="210"/>
+      <c r="G46" s="210"/>
+      <c r="H46" s="210"/>
+      <c r="I46" s="210"/>
+      <c r="J46" s="210"/>
+      <c r="K46" s="210"/>
+      <c r="L46" s="210"/>
+      <c r="M46" s="211"/>
+      <c r="N46" s="210"/>
       <c r="O46" s="132"/>
       <c r="P46" s="132"/>
       <c r="Q46" s="132"/>
@@ -18886,36 +18886,36 @@
       <c r="U46" s="132"/>
       <c r="V46" s="132"/>
       <c r="W46" s="132"/>
-      <c r="X46" s="244"/>
-      <c r="Y46" s="236"/>
-      <c r="Z46" s="236"/>
-      <c r="AA46" s="236"/>
-      <c r="AB46" s="236"/>
-      <c r="AC46" s="236"/>
-      <c r="AD46" s="236"/>
-      <c r="AE46" s="318" t="s">
+      <c r="X46" s="217"/>
+      <c r="Y46" s="210"/>
+      <c r="Z46" s="210"/>
+      <c r="AA46" s="210"/>
+      <c r="AB46" s="210"/>
+      <c r="AC46" s="210"/>
+      <c r="AD46" s="210"/>
+      <c r="AE46" s="274" t="s">
         <v>296</v>
       </c>
-      <c r="AF46" s="318"/>
-      <c r="AG46" s="319" t="s">
+      <c r="AF46" s="274"/>
+      <c r="AG46" s="275" t="s">
         <v>295</v>
       </c>
-      <c r="AH46" s="319"/>
-      <c r="AI46" s="237"/>
+      <c r="AH46" s="275"/>
+      <c r="AI46" s="211"/>
     </row>
     <row r="47" spans="3:35" ht="21.75" customHeight="1">
-      <c r="C47" s="244"/>
-      <c r="D47" s="236"/>
-      <c r="E47" s="236"/>
-      <c r="F47" s="236"/>
-      <c r="G47" s="236"/>
-      <c r="H47" s="236"/>
-      <c r="I47" s="236"/>
-      <c r="J47" s="236"/>
-      <c r="K47" s="236"/>
-      <c r="L47" s="236"/>
-      <c r="M47" s="237"/>
-      <c r="N47" s="236"/>
+      <c r="C47" s="217"/>
+      <c r="D47" s="210"/>
+      <c r="E47" s="210"/>
+      <c r="F47" s="210"/>
+      <c r="G47" s="210"/>
+      <c r="H47" s="210"/>
+      <c r="I47" s="210"/>
+      <c r="J47" s="210"/>
+      <c r="K47" s="210"/>
+      <c r="L47" s="210"/>
+      <c r="M47" s="211"/>
+      <c r="N47" s="210"/>
       <c r="O47" s="132"/>
       <c r="P47" s="132"/>
       <c r="Q47" s="132"/>
@@ -18925,32 +18925,32 @@
       <c r="U47" s="132"/>
       <c r="V47" s="132"/>
       <c r="W47" s="132"/>
-      <c r="X47" s="244"/>
-      <c r="Y47" s="236"/>
-      <c r="Z47" s="236"/>
-      <c r="AA47" s="236"/>
-      <c r="AB47" s="236"/>
-      <c r="AC47" s="236"/>
-      <c r="AD47" s="236"/>
-      <c r="AE47" s="318"/>
-      <c r="AF47" s="318"/>
-      <c r="AG47" s="319"/>
-      <c r="AH47" s="319"/>
-      <c r="AI47" s="237"/>
+      <c r="X47" s="217"/>
+      <c r="Y47" s="210"/>
+      <c r="Z47" s="210"/>
+      <c r="AA47" s="210"/>
+      <c r="AB47" s="210"/>
+      <c r="AC47" s="210"/>
+      <c r="AD47" s="210"/>
+      <c r="AE47" s="274"/>
+      <c r="AF47" s="274"/>
+      <c r="AG47" s="275"/>
+      <c r="AH47" s="275"/>
+      <c r="AI47" s="211"/>
     </row>
     <row r="48" spans="3:35" ht="15" thickBot="1">
-      <c r="C48" s="250"/>
-      <c r="D48" s="251"/>
-      <c r="E48" s="251"/>
-      <c r="F48" s="251"/>
-      <c r="G48" s="251"/>
-      <c r="H48" s="251"/>
-      <c r="I48" s="251"/>
-      <c r="J48" s="251"/>
-      <c r="K48" s="251"/>
-      <c r="L48" s="251"/>
-      <c r="M48" s="252"/>
-      <c r="N48" s="236"/>
+      <c r="C48" s="221"/>
+      <c r="D48" s="222"/>
+      <c r="E48" s="222"/>
+      <c r="F48" s="222"/>
+      <c r="G48" s="222"/>
+      <c r="H48" s="222"/>
+      <c r="I48" s="222"/>
+      <c r="J48" s="222"/>
+      <c r="K48" s="222"/>
+      <c r="L48" s="222"/>
+      <c r="M48" s="223"/>
+      <c r="N48" s="210"/>
       <c r="O48" s="132"/>
       <c r="P48" s="132"/>
       <c r="Q48" s="132"/>
@@ -18960,18 +18960,18 @@
       <c r="U48" s="132"/>
       <c r="V48" s="132"/>
       <c r="W48" s="132"/>
-      <c r="X48" s="244"/>
-      <c r="Y48" s="236"/>
-      <c r="Z48" s="236"/>
-      <c r="AA48" s="236"/>
-      <c r="AB48" s="236"/>
-      <c r="AC48" s="236"/>
-      <c r="AD48" s="236"/>
-      <c r="AE48" s="236"/>
-      <c r="AF48" s="236"/>
-      <c r="AG48" s="236"/>
-      <c r="AH48" s="236"/>
-      <c r="AI48" s="237"/>
+      <c r="X48" s="217"/>
+      <c r="Y48" s="210"/>
+      <c r="Z48" s="210"/>
+      <c r="AA48" s="210"/>
+      <c r="AB48" s="210"/>
+      <c r="AC48" s="210"/>
+      <c r="AD48" s="210"/>
+      <c r="AE48" s="210"/>
+      <c r="AF48" s="210"/>
+      <c r="AG48" s="210"/>
+      <c r="AH48" s="210"/>
+      <c r="AI48" s="211"/>
     </row>
     <row r="49" spans="3:35">
       <c r="C49" s="132"/>
@@ -18985,7 +18985,7 @@
       <c r="K49" s="132"/>
       <c r="L49" s="132"/>
       <c r="M49" s="132"/>
-      <c r="N49" s="236"/>
+      <c r="N49" s="210"/>
       <c r="O49" s="132"/>
       <c r="P49" s="132"/>
       <c r="Q49" s="132"/>
@@ -18995,18 +18995,18 @@
       <c r="U49" s="132"/>
       <c r="V49" s="132"/>
       <c r="W49" s="132"/>
-      <c r="X49" s="244"/>
-      <c r="Y49" s="236"/>
-      <c r="Z49" s="236"/>
-      <c r="AA49" s="236"/>
-      <c r="AB49" s="236"/>
-      <c r="AC49" s="236"/>
-      <c r="AD49" s="236"/>
-      <c r="AE49" s="236"/>
-      <c r="AF49" s="236"/>
-      <c r="AG49" s="236"/>
-      <c r="AH49" s="236"/>
-      <c r="AI49" s="237"/>
+      <c r="X49" s="217"/>
+      <c r="Y49" s="210"/>
+      <c r="Z49" s="210"/>
+      <c r="AA49" s="210"/>
+      <c r="AB49" s="210"/>
+      <c r="AC49" s="210"/>
+      <c r="AD49" s="210"/>
+      <c r="AE49" s="210"/>
+      <c r="AF49" s="210"/>
+      <c r="AG49" s="210"/>
+      <c r="AH49" s="210"/>
+      <c r="AI49" s="211"/>
     </row>
     <row r="50" spans="3:35" ht="15" thickBot="1">
       <c r="C50" s="132"/>
@@ -19020,7 +19020,7 @@
       <c r="K50" s="132"/>
       <c r="L50" s="132"/>
       <c r="M50" s="132"/>
-      <c r="N50" s="236"/>
+      <c r="N50" s="210"/>
       <c r="O50" s="132"/>
       <c r="P50" s="132"/>
       <c r="Q50" s="132"/>
@@ -19030,18 +19030,18 @@
       <c r="U50" s="132"/>
       <c r="V50" s="132"/>
       <c r="W50" s="132"/>
-      <c r="X50" s="250"/>
-      <c r="Y50" s="251"/>
-      <c r="Z50" s="251"/>
-      <c r="AA50" s="251"/>
-      <c r="AB50" s="251"/>
-      <c r="AC50" s="251"/>
-      <c r="AD50" s="251"/>
-      <c r="AE50" s="251"/>
-      <c r="AF50" s="251"/>
-      <c r="AG50" s="251"/>
-      <c r="AH50" s="251"/>
-      <c r="AI50" s="252"/>
+      <c r="X50" s="221"/>
+      <c r="Y50" s="222"/>
+      <c r="Z50" s="222"/>
+      <c r="AA50" s="222"/>
+      <c r="AB50" s="222"/>
+      <c r="AC50" s="222"/>
+      <c r="AD50" s="222"/>
+      <c r="AE50" s="222"/>
+      <c r="AF50" s="222"/>
+      <c r="AG50" s="222"/>
+      <c r="AH50" s="222"/>
+      <c r="AI50" s="223"/>
     </row>
     <row r="51" spans="3:35">
       <c r="C51" s="132"/>
@@ -19163,12 +19163,21 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AE46:AF47"/>
-    <mergeCell ref="AG46:AH47"/>
-    <mergeCell ref="AF33:AH33"/>
-    <mergeCell ref="AF34:AH34"/>
-    <mergeCell ref="AF35:AH35"/>
-    <mergeCell ref="AF36:AH36"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AH20"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="Y22:Y27"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AF24:AH24"/>
     <mergeCell ref="Y33:Y36"/>
     <mergeCell ref="AH40:AH41"/>
     <mergeCell ref="AH42:AH43"/>
@@ -19183,21 +19192,12 @@
     <mergeCell ref="AF30:AH30"/>
     <mergeCell ref="AF31:AH31"/>
     <mergeCell ref="AF32:AH32"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AH20"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="Y22:Y27"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="AF24:AH24"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="AE46:AF47"/>
+    <mergeCell ref="AG46:AH47"/>
+    <mergeCell ref="AF33:AH33"/>
+    <mergeCell ref="AF34:AH34"/>
+    <mergeCell ref="AF35:AH35"/>
+    <mergeCell ref="AF36:AH36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19385,20 +19385,20 @@
       </c>
     </row>
     <row r="18" spans="3:25">
-      <c r="L18" s="231" t="s">
+      <c r="L18" s="298" t="s">
         <v>71</v>
       </c>
-      <c r="M18" s="231"/>
-      <c r="N18" s="231" t="s">
+      <c r="M18" s="298"/>
+      <c r="N18" s="298" t="s">
         <v>220</v>
       </c>
-      <c r="O18" s="231"/>
-      <c r="P18" s="231"/>
-      <c r="Q18" s="231"/>
-      <c r="R18" s="231" t="s">
+      <c r="O18" s="298"/>
+      <c r="P18" s="298"/>
+      <c r="Q18" s="298"/>
+      <c r="R18" s="298" t="s">
         <v>221</v>
       </c>
-      <c r="S18" s="231"/>
+      <c r="S18" s="298"/>
       <c r="T18" s="24" t="s">
         <v>44</v>
       </c>
@@ -21760,20 +21760,20 @@
       <c r="V99" s="51"/>
       <c r="W99" s="51"/>
       <c r="X99" s="51"/>
-      <c r="Y99" s="211" t="s">
+      <c r="Y99" s="306" t="s">
         <v>326</v>
       </c>
-      <c r="Z99" s="212"/>
+      <c r="Z99" s="307"/>
       <c r="AA99" s="52"/>
       <c r="AC99" s="101"/>
       <c r="AD99" s="50"/>
       <c r="AE99" s="51"/>
       <c r="AF99" s="51"/>
       <c r="AG99" s="51"/>
-      <c r="AH99" s="211" t="s">
+      <c r="AH99" s="306" t="s">
         <v>339</v>
       </c>
-      <c r="AI99" s="212"/>
+      <c r="AI99" s="307"/>
       <c r="AJ99" s="61"/>
       <c r="AK99" s="102" t="s">
         <v>353</v>
@@ -21964,32 +21964,32 @@
       <c r="AA103" s="67"/>
       <c r="AB103" s="17"/>
       <c r="AC103" s="66"/>
-      <c r="AD103" s="229" t="s">
+      <c r="AD103" s="301" t="s">
         <v>340</v>
       </c>
-      <c r="AE103" s="229" t="s">
+      <c r="AE103" s="301" t="s">
         <v>160</v>
       </c>
-      <c r="AF103" s="228" t="s">
+      <c r="AF103" s="311" t="s">
         <v>161</v>
       </c>
-      <c r="AG103" s="229" t="s">
+      <c r="AG103" s="301" t="s">
         <v>2</v>
       </c>
-      <c r="AH103" s="229" t="s">
+      <c r="AH103" s="301" t="s">
         <v>169</v>
       </c>
-      <c r="AI103" s="229" t="s">
+      <c r="AI103" s="301" t="s">
         <v>341</v>
       </c>
-      <c r="AJ103" s="229" t="s">
+      <c r="AJ103" s="301" t="s">
         <v>327</v>
       </c>
-      <c r="AK103" s="229" t="s">
+      <c r="AK103" s="301" t="s">
         <v>282</v>
       </c>
-      <c r="AL103" s="229"/>
-      <c r="AM103" s="229"/>
+      <c r="AL103" s="301"/>
+      <c r="AM103" s="301"/>
       <c r="AN103" s="67"/>
       <c r="AO103" s="17"/>
       <c r="AQ103" s="17"/>
@@ -22030,16 +22030,16 @@
       <c r="AA104" s="67"/>
       <c r="AB104" s="17"/>
       <c r="AC104" s="66"/>
-      <c r="AD104" s="229"/>
-      <c r="AE104" s="229"/>
-      <c r="AF104" s="228"/>
-      <c r="AG104" s="229"/>
-      <c r="AH104" s="229"/>
-      <c r="AI104" s="230"/>
-      <c r="AJ104" s="230"/>
-      <c r="AK104" s="230"/>
-      <c r="AL104" s="230"/>
-      <c r="AM104" s="230"/>
+      <c r="AD104" s="301"/>
+      <c r="AE104" s="301"/>
+      <c r="AF104" s="311"/>
+      <c r="AG104" s="301"/>
+      <c r="AH104" s="301"/>
+      <c r="AI104" s="302"/>
+      <c r="AJ104" s="302"/>
+      <c r="AK104" s="302"/>
+      <c r="AL104" s="302"/>
+      <c r="AM104" s="302"/>
       <c r="AN104" s="67"/>
       <c r="AO104" s="17"/>
       <c r="AQ104" s="17"/>
@@ -22108,11 +22108,11 @@
       <c r="AJ105" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="AK105" s="222" t="s">
+      <c r="AK105" s="320" t="s">
         <v>343</v>
       </c>
-      <c r="AL105" s="223"/>
-      <c r="AM105" s="224"/>
+      <c r="AL105" s="321"/>
+      <c r="AM105" s="322"/>
       <c r="AN105" s="67"/>
       <c r="AO105" s="17"/>
       <c r="AQ105" s="17"/>
@@ -22153,7 +22153,7 @@
       <c r="AA106" s="67"/>
       <c r="AB106" s="17"/>
       <c r="AC106" s="66"/>
-      <c r="AD106" s="225" t="s">
+      <c r="AD106" s="308" t="s">
         <v>8</v>
       </c>
       <c r="AE106" s="86" t="s">
@@ -22174,9 +22174,9 @@
       <c r="AJ106" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="AK106" s="213"/>
-      <c r="AL106" s="214"/>
-      <c r="AM106" s="215"/>
+      <c r="AK106" s="303"/>
+      <c r="AL106" s="304"/>
+      <c r="AM106" s="305"/>
       <c r="AN106" s="67"/>
       <c r="AO106" s="17"/>
       <c r="AQ106" s="17"/>
@@ -22215,7 +22215,7 @@
       </c>
       <c r="AA107" s="52"/>
       <c r="AC107" s="49"/>
-      <c r="AD107" s="226"/>
+      <c r="AD107" s="309"/>
       <c r="AE107" s="87" t="s">
         <v>32</v>
       </c>
@@ -22232,9 +22232,9 @@
         <v>2035.2</v>
       </c>
       <c r="AJ107" s="95"/>
-      <c r="AK107" s="213"/>
-      <c r="AL107" s="214"/>
-      <c r="AM107" s="215"/>
+      <c r="AK107" s="303"/>
+      <c r="AL107" s="304"/>
+      <c r="AM107" s="305"/>
       <c r="AN107" s="52"/>
     </row>
     <row r="108" spans="9:45" ht="17.25" thickBot="1">
@@ -22269,7 +22269,7 @@
       </c>
       <c r="AA108" s="52"/>
       <c r="AC108" s="49"/>
-      <c r="AD108" s="226"/>
+      <c r="AD108" s="309"/>
       <c r="AE108" s="86" t="s">
         <v>32</v>
       </c>
@@ -22284,9 +22284,9 @@
       </c>
       <c r="AI108" s="90"/>
       <c r="AJ108" s="91"/>
-      <c r="AK108" s="213"/>
-      <c r="AL108" s="214"/>
-      <c r="AM108" s="215"/>
+      <c r="AK108" s="303"/>
+      <c r="AL108" s="304"/>
+      <c r="AM108" s="305"/>
       <c r="AN108" s="52"/>
     </row>
     <row r="109" spans="9:45" ht="18.75" thickBot="1">
@@ -22294,10 +22294,10 @@
       <c r="J109" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="K109" s="232" t="s">
+      <c r="K109" s="299" t="s">
         <v>193</v>
       </c>
-      <c r="L109" s="233"/>
+      <c r="L109" s="300"/>
       <c r="M109" s="44" t="s">
         <v>291</v>
       </c>
@@ -22337,7 +22337,7 @@
       </c>
       <c r="AA109" s="52"/>
       <c r="AC109" s="49"/>
-      <c r="AD109" s="226"/>
+      <c r="AD109" s="309"/>
       <c r="AE109" s="86" t="s">
         <v>32</v>
       </c>
@@ -22352,9 +22352,9 @@
       </c>
       <c r="AI109" s="90"/>
       <c r="AJ109" s="91"/>
-      <c r="AK109" s="213"/>
-      <c r="AL109" s="214"/>
-      <c r="AM109" s="215"/>
+      <c r="AK109" s="303"/>
+      <c r="AL109" s="304"/>
+      <c r="AM109" s="305"/>
       <c r="AN109" s="52"/>
     </row>
     <row r="110" spans="9:45" ht="17.25" thickBot="1">
@@ -22403,7 +22403,7 @@
       </c>
       <c r="AA110" s="52"/>
       <c r="AC110" s="49"/>
-      <c r="AD110" s="226"/>
+      <c r="AD110" s="309"/>
       <c r="AE110" s="86" t="s">
         <v>32</v>
       </c>
@@ -22418,9 +22418,9 @@
       </c>
       <c r="AI110" s="90"/>
       <c r="AJ110" s="91"/>
-      <c r="AK110" s="213"/>
-      <c r="AL110" s="214"/>
-      <c r="AM110" s="215"/>
+      <c r="AK110" s="303"/>
+      <c r="AL110" s="304"/>
+      <c r="AM110" s="305"/>
       <c r="AN110" s="52"/>
     </row>
     <row r="111" spans="9:45" ht="17.25" thickBot="1">
@@ -22469,7 +22469,7 @@
       </c>
       <c r="AA111" s="52"/>
       <c r="AC111" s="49"/>
-      <c r="AD111" s="227"/>
+      <c r="AD111" s="310"/>
       <c r="AE111" s="86" t="s">
         <v>32</v>
       </c>
@@ -22484,9 +22484,9 @@
       </c>
       <c r="AI111" s="90"/>
       <c r="AJ111" s="91"/>
-      <c r="AK111" s="213"/>
-      <c r="AL111" s="214"/>
-      <c r="AM111" s="215"/>
+      <c r="AK111" s="303"/>
+      <c r="AL111" s="304"/>
+      <c r="AM111" s="305"/>
       <c r="AN111" s="52"/>
     </row>
     <row r="112" spans="9:45" ht="17.25" thickBot="1">
@@ -22518,7 +22518,7 @@
       <c r="Z112" s="51"/>
       <c r="AA112" s="52"/>
       <c r="AC112" s="49"/>
-      <c r="AD112" s="225" t="s">
+      <c r="AD112" s="308" t="s">
         <v>16</v>
       </c>
       <c r="AE112" s="86" t="s">
@@ -22535,9 +22535,9 @@
       </c>
       <c r="AI112" s="90"/>
       <c r="AJ112" s="91"/>
-      <c r="AK112" s="213"/>
-      <c r="AL112" s="214"/>
-      <c r="AM112" s="215"/>
+      <c r="AK112" s="303"/>
+      <c r="AL112" s="304"/>
+      <c r="AM112" s="305"/>
       <c r="AN112" s="52"/>
     </row>
     <row r="113" spans="9:40" ht="17.25" thickBot="1">
@@ -22570,7 +22570,7 @@
       <c r="T113" s="49"/>
       <c r="AA113" s="52"/>
       <c r="AC113" s="49"/>
-      <c r="AD113" s="226"/>
+      <c r="AD113" s="309"/>
       <c r="AE113" s="86" t="s">
         <v>32</v>
       </c>
@@ -22585,9 +22585,9 @@
       </c>
       <c r="AI113" s="90"/>
       <c r="AJ113" s="91"/>
-      <c r="AK113" s="213"/>
-      <c r="AL113" s="214"/>
-      <c r="AM113" s="215"/>
+      <c r="AK113" s="303"/>
+      <c r="AL113" s="304"/>
+      <c r="AM113" s="305"/>
       <c r="AN113" s="52"/>
     </row>
     <row r="114" spans="9:40" ht="17.25" thickBot="1">
@@ -22624,7 +22624,7 @@
       <c r="X114" s="51"/>
       <c r="AA114" s="52"/>
       <c r="AC114" s="49"/>
-      <c r="AD114" s="226"/>
+      <c r="AD114" s="309"/>
       <c r="AE114" s="86" t="s">
         <v>32</v>
       </c>
@@ -22639,9 +22639,9 @@
       </c>
       <c r="AI114" s="90"/>
       <c r="AJ114" s="91"/>
-      <c r="AK114" s="213"/>
-      <c r="AL114" s="214"/>
-      <c r="AM114" s="215"/>
+      <c r="AK114" s="303"/>
+      <c r="AL114" s="304"/>
+      <c r="AM114" s="305"/>
       <c r="AN114" s="52"/>
     </row>
     <row r="115" spans="9:40" ht="17.25" thickBot="1">
@@ -22664,7 +22664,7 @@
       <c r="Z115" s="55"/>
       <c r="AA115" s="56"/>
       <c r="AC115" s="49"/>
-      <c r="AD115" s="226"/>
+      <c r="AD115" s="309"/>
       <c r="AE115" s="86" t="s">
         <v>17</v>
       </c>
@@ -22677,9 +22677,9 @@
       </c>
       <c r="AI115" s="90"/>
       <c r="AJ115" s="91"/>
-      <c r="AK115" s="213"/>
-      <c r="AL115" s="214"/>
-      <c r="AM115" s="215"/>
+      <c r="AK115" s="303"/>
+      <c r="AL115" s="304"/>
+      <c r="AM115" s="305"/>
       <c r="AN115" s="52"/>
     </row>
     <row r="116" spans="9:40" ht="3" customHeight="1" thickBot="1">
@@ -22694,7 +22694,7 @@
       <c r="Q116" s="50"/>
       <c r="R116" s="52"/>
       <c r="AC116" s="49"/>
-      <c r="AD116" s="227"/>
+      <c r="AD116" s="310"/>
       <c r="AE116" s="86" t="s">
         <v>20</v>
       </c>
@@ -22707,9 +22707,9 @@
       </c>
       <c r="AI116" s="90"/>
       <c r="AJ116" s="91"/>
-      <c r="AK116" s="213"/>
-      <c r="AL116" s="214"/>
-      <c r="AM116" s="215"/>
+      <c r="AK116" s="303"/>
+      <c r="AL116" s="304"/>
+      <c r="AM116" s="305"/>
       <c r="AN116" s="52"/>
     </row>
     <row r="117" spans="9:40" ht="17.25" hidden="1" customHeight="1" thickBot="1">
@@ -22724,7 +22724,7 @@
       <c r="Q117" s="50"/>
       <c r="R117" s="52"/>
       <c r="AC117" s="49"/>
-      <c r="AD117" s="225" t="s">
+      <c r="AD117" s="308" t="s">
         <v>22</v>
       </c>
       <c r="AE117" s="86" t="s">
@@ -22756,7 +22756,7 @@
       <c r="Q118" s="50"/>
       <c r="R118" s="52"/>
       <c r="AC118" s="49"/>
-      <c r="AD118" s="226"/>
+      <c r="AD118" s="309"/>
       <c r="AE118" s="86" t="s">
         <v>25</v>
       </c>
@@ -22786,7 +22786,7 @@
       <c r="Q119" s="50"/>
       <c r="R119" s="52"/>
       <c r="AC119" s="49"/>
-      <c r="AD119" s="226"/>
+      <c r="AD119" s="309"/>
       <c r="AE119" s="86" t="s">
         <v>28</v>
       </c>
@@ -22816,7 +22816,7 @@
       <c r="Q120" s="50"/>
       <c r="R120" s="52"/>
       <c r="AC120" s="49"/>
-      <c r="AD120" s="227"/>
+      <c r="AD120" s="310"/>
       <c r="AE120" s="86" t="s">
         <v>27</v>
       </c>
@@ -22937,7 +22937,7 @@
       <c r="AL124" s="99">
         <v>9</v>
       </c>
-      <c r="AM124" s="218" t="s">
+      <c r="AM124" s="316" t="s">
         <v>294</v>
       </c>
       <c r="AN124" s="52"/>
@@ -22969,7 +22969,7 @@
       <c r="AL125" s="99">
         <v>6</v>
       </c>
-      <c r="AM125" s="219"/>
+      <c r="AM125" s="317"/>
       <c r="AN125" s="52"/>
     </row>
     <row r="126" spans="9:40" ht="36.75" customHeight="1">
@@ -22999,7 +22999,7 @@
       <c r="AL126" s="99">
         <v>3</v>
       </c>
-      <c r="AM126" s="216" t="s">
+      <c r="AM126" s="314" t="s">
         <v>345</v>
       </c>
       <c r="AN126" s="52"/>
@@ -23022,14 +23022,14 @@
       <c r="AG127" s="51"/>
       <c r="AH127" s="51"/>
       <c r="AI127" s="51"/>
-      <c r="AJ127" s="220">
+      <c r="AJ127" s="318">
         <v>0</v>
       </c>
-      <c r="AK127" s="221"/>
+      <c r="AK127" s="319"/>
       <c r="AL127" s="99" t="s">
         <v>344</v>
       </c>
-      <c r="AM127" s="217"/>
+      <c r="AM127" s="315"/>
       <c r="AN127" s="52"/>
     </row>
     <row r="128" spans="9:40" ht="9" customHeight="1">
@@ -23098,7 +23098,7 @@
       <c r="AG130" s="51"/>
       <c r="AH130" s="51"/>
       <c r="AI130" s="51"/>
-      <c r="AJ130" s="209" t="s">
+      <c r="AJ130" s="312" t="s">
         <v>351</v>
       </c>
       <c r="AK130" s="100" t="s">
@@ -23107,7 +23107,7 @@
       <c r="AL130" s="100" t="s">
         <v>348</v>
       </c>
-      <c r="AM130" s="210" t="s">
+      <c r="AM130" s="313" t="s">
         <v>346</v>
       </c>
       <c r="AN130" s="52"/>
@@ -23130,14 +23130,14 @@
       <c r="AG131" s="51"/>
       <c r="AH131" s="51"/>
       <c r="AI131" s="51"/>
-      <c r="AJ131" s="209"/>
+      <c r="AJ131" s="312"/>
       <c r="AK131" s="100" t="s">
         <v>350</v>
       </c>
       <c r="AL131" s="100" t="s">
         <v>349</v>
       </c>
-      <c r="AM131" s="210"/>
+      <c r="AM131" s="313"/>
       <c r="AN131" s="52"/>
     </row>
     <row r="132" spans="9:40">
@@ -23182,14 +23182,14 @@
       <c r="AG133" s="51"/>
       <c r="AH133" s="51"/>
       <c r="AI133" s="51"/>
-      <c r="AJ133" s="209" t="s">
+      <c r="AJ133" s="312" t="s">
         <v>296</v>
       </c>
-      <c r="AK133" s="209"/>
-      <c r="AL133" s="210" t="s">
+      <c r="AK133" s="312"/>
+      <c r="AL133" s="313" t="s">
         <v>406</v>
       </c>
-      <c r="AM133" s="210"/>
+      <c r="AM133" s="313"/>
       <c r="AN133" s="52"/>
     </row>
     <row r="134" spans="9:40" ht="16.5" customHeight="1" thickBot="1">
@@ -23210,10 +23210,10 @@
       <c r="AG134" s="51"/>
       <c r="AH134" s="51"/>
       <c r="AI134" s="51"/>
-      <c r="AJ134" s="209"/>
-      <c r="AK134" s="209"/>
-      <c r="AL134" s="210"/>
-      <c r="AM134" s="210"/>
+      <c r="AJ134" s="312"/>
+      <c r="AK134" s="312"/>
+      <c r="AL134" s="313"/>
+      <c r="AM134" s="313"/>
       <c r="AN134" s="52"/>
     </row>
     <row r="135" spans="9:40">
@@ -23358,27 +23358,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="AK103:AM104"/>
-    <mergeCell ref="AK106:AM106"/>
-    <mergeCell ref="AK107:AM107"/>
-    <mergeCell ref="AK108:AM108"/>
-    <mergeCell ref="AK109:AM109"/>
-    <mergeCell ref="Y99:Z99"/>
-    <mergeCell ref="AD106:AD111"/>
-    <mergeCell ref="AI103:AI104"/>
-    <mergeCell ref="AJ103:AJ104"/>
-    <mergeCell ref="AG103:AG104"/>
-    <mergeCell ref="AH103:AH104"/>
-    <mergeCell ref="AD112:AD116"/>
-    <mergeCell ref="AD117:AD120"/>
-    <mergeCell ref="AF103:AF104"/>
-    <mergeCell ref="AE103:AE104"/>
-    <mergeCell ref="AD103:AD104"/>
     <mergeCell ref="AJ133:AK134"/>
     <mergeCell ref="AL133:AM134"/>
     <mergeCell ref="AH99:AI99"/>
@@ -23395,6 +23374,27 @@
     <mergeCell ref="AM124:AM125"/>
     <mergeCell ref="AJ127:AK127"/>
     <mergeCell ref="AK105:AM105"/>
+    <mergeCell ref="AD112:AD116"/>
+    <mergeCell ref="AD117:AD120"/>
+    <mergeCell ref="AF103:AF104"/>
+    <mergeCell ref="AE103:AE104"/>
+    <mergeCell ref="AD103:AD104"/>
+    <mergeCell ref="Y99:Z99"/>
+    <mergeCell ref="AD106:AD111"/>
+    <mergeCell ref="AI103:AI104"/>
+    <mergeCell ref="AJ103:AJ104"/>
+    <mergeCell ref="AG103:AG104"/>
+    <mergeCell ref="AH103:AH104"/>
+    <mergeCell ref="AK103:AM104"/>
+    <mergeCell ref="AK106:AM106"/>
+    <mergeCell ref="AK107:AM107"/>
+    <mergeCell ref="AK108:AM108"/>
+    <mergeCell ref="AK109:AM109"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="K109:L109"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P49:P52 Q50">
@@ -23631,20 +23631,20 @@
       </c>
     </row>
     <row r="18" spans="3:25">
-      <c r="L18" s="231" t="s">
+      <c r="L18" s="298" t="s">
         <v>71</v>
       </c>
-      <c r="M18" s="231"/>
-      <c r="N18" s="231" t="s">
+      <c r="M18" s="298"/>
+      <c r="N18" s="298" t="s">
         <v>220</v>
       </c>
-      <c r="O18" s="231"/>
-      <c r="P18" s="231"/>
-      <c r="Q18" s="231"/>
-      <c r="R18" s="231" t="s">
+      <c r="O18" s="298"/>
+      <c r="P18" s="298"/>
+      <c r="Q18" s="298"/>
+      <c r="R18" s="298" t="s">
         <v>221</v>
       </c>
-      <c r="S18" s="231"/>
+      <c r="S18" s="298"/>
       <c r="T18" s="24" t="s">
         <v>44</v>
       </c>
@@ -25967,20 +25967,20 @@
       <c r="V99" s="51"/>
       <c r="W99" s="51"/>
       <c r="X99" s="51"/>
-      <c r="Y99" s="211" t="s">
+      <c r="Y99" s="306" t="s">
         <v>326</v>
       </c>
-      <c r="Z99" s="212"/>
+      <c r="Z99" s="307"/>
       <c r="AA99" s="52"/>
       <c r="AC99" s="101"/>
       <c r="AD99" s="50"/>
       <c r="AE99" s="51"/>
       <c r="AF99" s="51"/>
       <c r="AG99" s="51"/>
-      <c r="AH99" s="211" t="s">
+      <c r="AH99" s="306" t="s">
         <v>339</v>
       </c>
-      <c r="AI99" s="212"/>
+      <c r="AI99" s="307"/>
       <c r="AJ99" s="61"/>
       <c r="AK99" s="102" t="s">
         <v>353</v>
@@ -26165,32 +26165,32 @@
       <c r="AA103" s="67"/>
       <c r="AB103" s="17"/>
       <c r="AC103" s="66"/>
-      <c r="AD103" s="229" t="s">
+      <c r="AD103" s="301" t="s">
         <v>157</v>
       </c>
-      <c r="AE103" s="229" t="s">
+      <c r="AE103" s="301" t="s">
         <v>4</v>
       </c>
-      <c r="AF103" s="228" t="s">
+      <c r="AF103" s="311" t="s">
         <v>161</v>
       </c>
-      <c r="AG103" s="229" t="s">
+      <c r="AG103" s="301" t="s">
         <v>2</v>
       </c>
-      <c r="AH103" s="229" t="s">
+      <c r="AH103" s="301" t="s">
         <v>169</v>
       </c>
-      <c r="AI103" s="229" t="s">
+      <c r="AI103" s="301" t="s">
         <v>341</v>
       </c>
-      <c r="AJ103" s="229" t="s">
+      <c r="AJ103" s="301" t="s">
         <v>327</v>
       </c>
-      <c r="AK103" s="229" t="s">
+      <c r="AK103" s="301" t="s">
         <v>282</v>
       </c>
-      <c r="AL103" s="229"/>
-      <c r="AM103" s="229"/>
+      <c r="AL103" s="301"/>
+      <c r="AM103" s="301"/>
       <c r="AN103" s="67"/>
       <c r="AO103" s="17"/>
       <c r="AQ103" s="17"/>
@@ -26231,16 +26231,16 @@
       <c r="AA104" s="67"/>
       <c r="AB104" s="17"/>
       <c r="AC104" s="66"/>
-      <c r="AD104" s="229"/>
-      <c r="AE104" s="229"/>
-      <c r="AF104" s="228"/>
-      <c r="AG104" s="229"/>
-      <c r="AH104" s="229"/>
-      <c r="AI104" s="230"/>
-      <c r="AJ104" s="230"/>
-      <c r="AK104" s="230"/>
-      <c r="AL104" s="230"/>
-      <c r="AM104" s="230"/>
+      <c r="AD104" s="301"/>
+      <c r="AE104" s="301"/>
+      <c r="AF104" s="311"/>
+      <c r="AG104" s="301"/>
+      <c r="AH104" s="301"/>
+      <c r="AI104" s="302"/>
+      <c r="AJ104" s="302"/>
+      <c r="AK104" s="302"/>
+      <c r="AL104" s="302"/>
+      <c r="AM104" s="302"/>
       <c r="AN104" s="67"/>
       <c r="AO104" s="17"/>
       <c r="AQ104" s="17"/>
@@ -26309,11 +26309,11 @@
       <c r="AJ105" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="AK105" s="222" t="s">
+      <c r="AK105" s="320" t="s">
         <v>343</v>
       </c>
-      <c r="AL105" s="223"/>
-      <c r="AM105" s="224"/>
+      <c r="AL105" s="321"/>
+      <c r="AM105" s="322"/>
       <c r="AN105" s="67"/>
       <c r="AO105" s="17"/>
       <c r="AQ105" s="17"/>
@@ -26354,7 +26354,7 @@
       <c r="AA106" s="67"/>
       <c r="AB106" s="17"/>
       <c r="AC106" s="66"/>
-      <c r="AD106" s="225" t="s">
+      <c r="AD106" s="308" t="s">
         <v>8</v>
       </c>
       <c r="AE106" s="86" t="s">
@@ -26375,9 +26375,9 @@
       <c r="AJ106" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="AK106" s="213"/>
-      <c r="AL106" s="214"/>
-      <c r="AM106" s="215"/>
+      <c r="AK106" s="303"/>
+      <c r="AL106" s="304"/>
+      <c r="AM106" s="305"/>
       <c r="AN106" s="67"/>
       <c r="AO106" s="17"/>
       <c r="AQ106" s="17"/>
@@ -26416,7 +26416,7 @@
       </c>
       <c r="AA107" s="52"/>
       <c r="AC107" s="49"/>
-      <c r="AD107" s="226"/>
+      <c r="AD107" s="309"/>
       <c r="AE107" s="87" t="s">
         <v>32</v>
       </c>
@@ -26433,9 +26433,9 @@
         <v>2035.2</v>
       </c>
       <c r="AJ107" s="95"/>
-      <c r="AK107" s="213"/>
-      <c r="AL107" s="214"/>
-      <c r="AM107" s="215"/>
+      <c r="AK107" s="303"/>
+      <c r="AL107" s="304"/>
+      <c r="AM107" s="305"/>
       <c r="AN107" s="52"/>
     </row>
     <row r="108" spans="9:45" ht="17.25" thickBot="1">
@@ -26470,7 +26470,7 @@
       </c>
       <c r="AA108" s="52"/>
       <c r="AC108" s="49"/>
-      <c r="AD108" s="226"/>
+      <c r="AD108" s="309"/>
       <c r="AE108" s="86" t="s">
         <v>32</v>
       </c>
@@ -26485,9 +26485,9 @@
       </c>
       <c r="AI108" s="90"/>
       <c r="AJ108" s="91"/>
-      <c r="AK108" s="213"/>
-      <c r="AL108" s="214"/>
-      <c r="AM108" s="215"/>
+      <c r="AK108" s="303"/>
+      <c r="AL108" s="304"/>
+      <c r="AM108" s="305"/>
       <c r="AN108" s="52"/>
     </row>
     <row r="109" spans="9:45" ht="18.75" thickBot="1">
@@ -26495,10 +26495,10 @@
       <c r="J109" s="110" t="s">
         <v>238</v>
       </c>
-      <c r="K109" s="232" t="s">
+      <c r="K109" s="299" t="s">
         <v>193</v>
       </c>
-      <c r="L109" s="233"/>
+      <c r="L109" s="300"/>
       <c r="M109" s="110" t="s">
         <v>291</v>
       </c>
@@ -26538,7 +26538,7 @@
       </c>
       <c r="AA109" s="52"/>
       <c r="AC109" s="49"/>
-      <c r="AD109" s="226"/>
+      <c r="AD109" s="309"/>
       <c r="AE109" s="86" t="s">
         <v>32</v>
       </c>
@@ -26553,9 +26553,9 @@
       </c>
       <c r="AI109" s="90"/>
       <c r="AJ109" s="91"/>
-      <c r="AK109" s="213"/>
-      <c r="AL109" s="214"/>
-      <c r="AM109" s="215"/>
+      <c r="AK109" s="303"/>
+      <c r="AL109" s="304"/>
+      <c r="AM109" s="305"/>
       <c r="AN109" s="52"/>
     </row>
     <row r="110" spans="9:45" ht="17.25" thickBot="1">
@@ -26604,7 +26604,7 @@
       </c>
       <c r="AA110" s="52"/>
       <c r="AC110" s="49"/>
-      <c r="AD110" s="226"/>
+      <c r="AD110" s="309"/>
       <c r="AE110" s="86" t="s">
         <v>32</v>
       </c>
@@ -26619,9 +26619,9 @@
       </c>
       <c r="AI110" s="90"/>
       <c r="AJ110" s="91"/>
-      <c r="AK110" s="213"/>
-      <c r="AL110" s="214"/>
-      <c r="AM110" s="215"/>
+      <c r="AK110" s="303"/>
+      <c r="AL110" s="304"/>
+      <c r="AM110" s="305"/>
       <c r="AN110" s="52"/>
     </row>
     <row r="111" spans="9:45" ht="17.25" thickBot="1">
@@ -26670,7 +26670,7 @@
       </c>
       <c r="AA111" s="52"/>
       <c r="AC111" s="49"/>
-      <c r="AD111" s="227"/>
+      <c r="AD111" s="310"/>
       <c r="AE111" s="86" t="s">
         <v>32</v>
       </c>
@@ -26685,9 +26685,9 @@
       </c>
       <c r="AI111" s="90"/>
       <c r="AJ111" s="91"/>
-      <c r="AK111" s="213"/>
-      <c r="AL111" s="214"/>
-      <c r="AM111" s="215"/>
+      <c r="AK111" s="303"/>
+      <c r="AL111" s="304"/>
+      <c r="AM111" s="305"/>
       <c r="AN111" s="52"/>
     </row>
     <row r="112" spans="9:45" ht="17.25" thickBot="1">
@@ -26719,7 +26719,7 @@
       <c r="Z112" s="51"/>
       <c r="AA112" s="52"/>
       <c r="AC112" s="49"/>
-      <c r="AD112" s="225" t="s">
+      <c r="AD112" s="308" t="s">
         <v>16</v>
       </c>
       <c r="AE112" s="86" t="s">
@@ -26736,9 +26736,9 @@
       </c>
       <c r="AI112" s="90"/>
       <c r="AJ112" s="91"/>
-      <c r="AK112" s="213"/>
-      <c r="AL112" s="214"/>
-      <c r="AM112" s="215"/>
+      <c r="AK112" s="303"/>
+      <c r="AL112" s="304"/>
+      <c r="AM112" s="305"/>
       <c r="AN112" s="52"/>
     </row>
     <row r="113" spans="9:40" ht="17.25" thickBot="1">
@@ -26771,7 +26771,7 @@
       <c r="T113" s="49"/>
       <c r="AA113" s="52"/>
       <c r="AC113" s="49"/>
-      <c r="AD113" s="226"/>
+      <c r="AD113" s="309"/>
       <c r="AE113" s="86" t="s">
         <v>32</v>
       </c>
@@ -26786,9 +26786,9 @@
       </c>
       <c r="AI113" s="90"/>
       <c r="AJ113" s="91"/>
-      <c r="AK113" s="213"/>
-      <c r="AL113" s="214"/>
-      <c r="AM113" s="215"/>
+      <c r="AK113" s="303"/>
+      <c r="AL113" s="304"/>
+      <c r="AM113" s="305"/>
       <c r="AN113" s="52"/>
     </row>
     <row r="114" spans="9:40" ht="17.25" thickBot="1">
@@ -26825,7 +26825,7 @@
       <c r="X114" s="51"/>
       <c r="AA114" s="52"/>
       <c r="AC114" s="49"/>
-      <c r="AD114" s="226"/>
+      <c r="AD114" s="309"/>
       <c r="AE114" s="86" t="s">
         <v>32</v>
       </c>
@@ -26840,9 +26840,9 @@
       </c>
       <c r="AI114" s="90"/>
       <c r="AJ114" s="91"/>
-      <c r="AK114" s="213"/>
-      <c r="AL114" s="214"/>
-      <c r="AM114" s="215"/>
+      <c r="AK114" s="303"/>
+      <c r="AL114" s="304"/>
+      <c r="AM114" s="305"/>
       <c r="AN114" s="52"/>
     </row>
     <row r="115" spans="9:40" ht="17.25" thickBot="1">
@@ -26865,7 +26865,7 @@
       <c r="Z115" s="55"/>
       <c r="AA115" s="56"/>
       <c r="AC115" s="49"/>
-      <c r="AD115" s="226"/>
+      <c r="AD115" s="309"/>
       <c r="AE115" s="86" t="s">
         <v>17</v>
       </c>
@@ -26878,9 +26878,9 @@
       </c>
       <c r="AI115" s="90"/>
       <c r="AJ115" s="91"/>
-      <c r="AK115" s="213"/>
-      <c r="AL115" s="214"/>
-      <c r="AM115" s="215"/>
+      <c r="AK115" s="303"/>
+      <c r="AL115" s="304"/>
+      <c r="AM115" s="305"/>
       <c r="AN115" s="52"/>
     </row>
     <row r="116" spans="9:40" ht="3" customHeight="1" thickBot="1">
@@ -26895,7 +26895,7 @@
       <c r="Q116" s="50"/>
       <c r="R116" s="52"/>
       <c r="AC116" s="49"/>
-      <c r="AD116" s="227"/>
+      <c r="AD116" s="310"/>
       <c r="AE116" s="86" t="s">
         <v>20</v>
       </c>
@@ -26908,9 +26908,9 @@
       </c>
       <c r="AI116" s="90"/>
       <c r="AJ116" s="91"/>
-      <c r="AK116" s="213"/>
-      <c r="AL116" s="214"/>
-      <c r="AM116" s="215"/>
+      <c r="AK116" s="303"/>
+      <c r="AL116" s="304"/>
+      <c r="AM116" s="305"/>
       <c r="AN116" s="52"/>
     </row>
     <row r="117" spans="9:40" ht="17.25" hidden="1" customHeight="1" thickBot="1">
@@ -26925,7 +26925,7 @@
       <c r="Q117" s="50"/>
       <c r="R117" s="52"/>
       <c r="AC117" s="49"/>
-      <c r="AD117" s="225" t="s">
+      <c r="AD117" s="308" t="s">
         <v>22</v>
       </c>
       <c r="AE117" s="86" t="s">
@@ -26957,7 +26957,7 @@
       <c r="Q118" s="50"/>
       <c r="R118" s="52"/>
       <c r="AC118" s="49"/>
-      <c r="AD118" s="226"/>
+      <c r="AD118" s="309"/>
       <c r="AE118" s="86" t="s">
         <v>25</v>
       </c>
@@ -26987,7 +26987,7 @@
       <c r="Q119" s="50"/>
       <c r="R119" s="52"/>
       <c r="AC119" s="49"/>
-      <c r="AD119" s="226"/>
+      <c r="AD119" s="309"/>
       <c r="AE119" s="86" t="s">
         <v>28</v>
       </c>
@@ -27017,7 +27017,7 @@
       <c r="Q120" s="50"/>
       <c r="R120" s="52"/>
       <c r="AC120" s="49"/>
-      <c r="AD120" s="227"/>
+      <c r="AD120" s="310"/>
       <c r="AE120" s="86" t="s">
         <v>27</v>
       </c>
@@ -27138,7 +27138,7 @@
       <c r="AL124" s="99">
         <v>9</v>
       </c>
-      <c r="AM124" s="218" t="s">
+      <c r="AM124" s="316" t="s">
         <v>294</v>
       </c>
       <c r="AN124" s="52"/>
@@ -27170,7 +27170,7 @@
       <c r="AL125" s="99">
         <v>6</v>
       </c>
-      <c r="AM125" s="219"/>
+      <c r="AM125" s="317"/>
       <c r="AN125" s="52"/>
     </row>
     <row r="126" spans="9:40" ht="36.75" customHeight="1">
@@ -27200,7 +27200,7 @@
       <c r="AL126" s="99">
         <v>3</v>
       </c>
-      <c r="AM126" s="216" t="s">
+      <c r="AM126" s="314" t="s">
         <v>345</v>
       </c>
       <c r="AN126" s="52"/>
@@ -27223,14 +27223,14 @@
       <c r="AG127" s="51"/>
       <c r="AH127" s="51"/>
       <c r="AI127" s="51"/>
-      <c r="AJ127" s="220">
+      <c r="AJ127" s="318">
         <v>0</v>
       </c>
-      <c r="AK127" s="221"/>
+      <c r="AK127" s="319"/>
       <c r="AL127" s="99" t="s">
         <v>344</v>
       </c>
-      <c r="AM127" s="217"/>
+      <c r="AM127" s="315"/>
       <c r="AN127" s="52"/>
     </row>
     <row r="128" spans="9:40" ht="9" customHeight="1">
@@ -27299,7 +27299,7 @@
       <c r="AG130" s="51"/>
       <c r="AH130" s="51"/>
       <c r="AI130" s="51"/>
-      <c r="AJ130" s="209" t="s">
+      <c r="AJ130" s="312" t="s">
         <v>351</v>
       </c>
       <c r="AK130" s="109" t="s">
@@ -27308,7 +27308,7 @@
       <c r="AL130" s="109" t="s">
         <v>348</v>
       </c>
-      <c r="AM130" s="210" t="s">
+      <c r="AM130" s="313" t="s">
         <v>346</v>
       </c>
       <c r="AN130" s="52"/>
@@ -27331,14 +27331,14 @@
       <c r="AG131" s="51"/>
       <c r="AH131" s="51"/>
       <c r="AI131" s="51"/>
-      <c r="AJ131" s="209"/>
+      <c r="AJ131" s="312"/>
       <c r="AK131" s="109" t="s">
         <v>350</v>
       </c>
       <c r="AL131" s="109" t="s">
         <v>349</v>
       </c>
-      <c r="AM131" s="210"/>
+      <c r="AM131" s="313"/>
       <c r="AN131" s="52"/>
     </row>
     <row r="132" spans="9:40">
@@ -27383,14 +27383,14 @@
       <c r="AG133" s="51"/>
       <c r="AH133" s="51"/>
       <c r="AI133" s="51"/>
-      <c r="AJ133" s="209" t="s">
+      <c r="AJ133" s="312" t="s">
         <v>296</v>
       </c>
-      <c r="AK133" s="209"/>
-      <c r="AL133" s="210" t="s">
+      <c r="AK133" s="312"/>
+      <c r="AL133" s="313" t="s">
         <v>295</v>
       </c>
-      <c r="AM133" s="210"/>
+      <c r="AM133" s="313"/>
       <c r="AN133" s="52"/>
     </row>
     <row r="134" spans="9:40" ht="16.5" customHeight="1" thickBot="1">
@@ -27411,10 +27411,10 @@
       <c r="AG134" s="51"/>
       <c r="AH134" s="51"/>
       <c r="AI134" s="51"/>
-      <c r="AJ134" s="209"/>
-      <c r="AK134" s="209"/>
-      <c r="AL134" s="210"/>
-      <c r="AM134" s="210"/>
+      <c r="AJ134" s="312"/>
+      <c r="AK134" s="312"/>
+      <c r="AL134" s="313"/>
+      <c r="AM134" s="313"/>
       <c r="AN134" s="52"/>
     </row>
     <row r="135" spans="9:40">
@@ -27559,12 +27559,24 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AH99:AI99"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="Y99:Z99"/>
+    <mergeCell ref="AJ133:AK134"/>
+    <mergeCell ref="AL133:AM134"/>
+    <mergeCell ref="AD117:AD120"/>
+    <mergeCell ref="AM124:AM125"/>
+    <mergeCell ref="AM126:AM127"/>
+    <mergeCell ref="AJ127:AK127"/>
+    <mergeCell ref="AJ130:AJ131"/>
+    <mergeCell ref="AM130:AM131"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="AK109:AM109"/>
+    <mergeCell ref="AK110:AM110"/>
+    <mergeCell ref="AK111:AM111"/>
+    <mergeCell ref="AD112:AD116"/>
+    <mergeCell ref="AK112:AM112"/>
+    <mergeCell ref="AK113:AM113"/>
+    <mergeCell ref="AK114:AM114"/>
+    <mergeCell ref="AK115:AM115"/>
+    <mergeCell ref="AK116:AM116"/>
     <mergeCell ref="AJ103:AJ104"/>
     <mergeCell ref="AK103:AM104"/>
     <mergeCell ref="AK105:AM105"/>
@@ -27578,24 +27590,12 @@
     <mergeCell ref="AG103:AG104"/>
     <mergeCell ref="AH103:AH104"/>
     <mergeCell ref="AI103:AI104"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="AK109:AM109"/>
-    <mergeCell ref="AK110:AM110"/>
-    <mergeCell ref="AK111:AM111"/>
-    <mergeCell ref="AD112:AD116"/>
-    <mergeCell ref="AK112:AM112"/>
-    <mergeCell ref="AK113:AM113"/>
-    <mergeCell ref="AK114:AM114"/>
-    <mergeCell ref="AK115:AM115"/>
-    <mergeCell ref="AK116:AM116"/>
-    <mergeCell ref="AJ133:AK134"/>
-    <mergeCell ref="AL133:AM134"/>
-    <mergeCell ref="AD117:AD120"/>
-    <mergeCell ref="AM124:AM125"/>
-    <mergeCell ref="AM126:AM127"/>
-    <mergeCell ref="AJ127:AK127"/>
-    <mergeCell ref="AJ130:AJ131"/>
-    <mergeCell ref="AM130:AM131"/>
+    <mergeCell ref="AH99:AI99"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="Y99:Z99"/>
   </mergeCells>
   <phoneticPr fontId="32"/>
   <conditionalFormatting sqref="P60:P63">
@@ -27654,8 +27654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K4:X58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" topLeftCell="J13" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -28622,8 +28622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="BF48" sqref="BF48"/>
+    <sheetView showGridLines="0" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AT49" sqref="AT49:BL51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="14.25"/>
@@ -28639,8 +28639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AD103"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K92" sqref="K92"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -28775,20 +28775,20 @@
       </c>
       <c r="M16" s="134"/>
       <c r="N16" s="134"/>
-      <c r="O16" s="208" t="s">
+      <c r="O16" s="273" t="s">
         <v>71</v>
       </c>
-      <c r="P16" s="208"/>
-      <c r="Q16" s="208" t="s">
+      <c r="P16" s="273"/>
+      <c r="Q16" s="273" t="s">
         <v>63</v>
       </c>
-      <c r="R16" s="208"/>
-      <c r="S16" s="208"/>
-      <c r="T16" s="208"/>
-      <c r="U16" s="208" t="s">
+      <c r="R16" s="273"/>
+      <c r="S16" s="273"/>
+      <c r="T16" s="273"/>
+      <c r="U16" s="273" t="s">
         <v>222</v>
       </c>
-      <c r="V16" s="208"/>
+      <c r="V16" s="273"/>
       <c r="W16" s="134" t="s">
         <v>44</v>
       </c>
@@ -28941,10 +28941,10 @@
       <c r="L21" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="M21" s="305" t="s">
+      <c r="M21" s="259" t="s">
         <v>194</v>
       </c>
-      <c r="N21" s="305" t="s">
+      <c r="N21" s="259" t="s">
         <v>165</v>
       </c>
       <c r="O21" s="140" t="s">
@@ -28992,10 +28992,10 @@
       <c r="L22" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="M22" s="305" t="s">
+      <c r="M22" s="259" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="305" t="s">
+      <c r="N22" s="259" t="s">
         <v>94</v>
       </c>
       <c r="O22" s="140" t="s">
@@ -29051,10 +29051,10 @@
       <c r="L23" s="141" t="s">
         <v>130</v>
       </c>
-      <c r="M23" s="305" t="s">
+      <c r="M23" s="259" t="s">
         <v>130</v>
       </c>
-      <c r="N23" s="305" t="s">
+      <c r="N23" s="259" t="s">
         <v>130</v>
       </c>
       <c r="O23" s="140" t="s">
@@ -29111,13 +29111,13 @@
       <c r="J24" s="140" t="s">
         <v>147</v>
       </c>
-      <c r="L24" s="306" t="s">
+      <c r="L24" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="M24" s="307" t="s">
+      <c r="M24" s="261" t="s">
         <v>113</v>
       </c>
-      <c r="N24" s="308" t="s">
+      <c r="N24" s="262" t="s">
         <v>95</v>
       </c>
       <c r="O24" s="144" t="s">
@@ -29162,13 +29162,13 @@
       <c r="J25" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="L25" s="306" t="s">
+      <c r="L25" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="309" t="s">
+      <c r="M25" s="263" t="s">
         <v>428</v>
       </c>
-      <c r="N25" s="310" t="s">
+      <c r="N25" s="264" t="s">
         <v>96</v>
       </c>
       <c r="O25" s="135" t="s">
@@ -29225,13 +29225,13 @@
       <c r="J26" s="140" t="s">
         <v>132</v>
       </c>
-      <c r="L26" s="306" t="s">
+      <c r="L26" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="309" t="s">
+      <c r="M26" s="263" t="s">
         <v>113</v>
       </c>
-      <c r="N26" s="310" t="s">
+      <c r="N26" s="264" t="s">
         <v>97</v>
       </c>
       <c r="O26" s="135" t="s">
@@ -29282,13 +29282,13 @@
       <c r="J27" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="L27" s="306" t="s">
+      <c r="L27" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="M27" s="311" t="s">
+      <c r="M27" s="265" t="s">
         <v>113</v>
       </c>
-      <c r="N27" s="312" t="s">
+      <c r="N27" s="266" t="s">
         <v>98</v>
       </c>
       <c r="O27" s="146" t="s">
@@ -29339,13 +29339,13 @@
       <c r="J28" s="135" t="s">
         <v>112</v>
       </c>
-      <c r="L28" s="306" t="s">
+      <c r="L28" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="M28" s="309" t="s">
+      <c r="M28" s="263" t="s">
         <v>113</v>
       </c>
-      <c r="N28" s="310" t="s">
+      <c r="N28" s="264" t="s">
         <v>99</v>
       </c>
       <c r="O28" s="135" t="s">
@@ -29396,13 +29396,13 @@
       <c r="J29" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="L29" s="306" t="s">
+      <c r="L29" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="M29" s="309" t="s">
+      <c r="M29" s="263" t="s">
         <v>113</v>
       </c>
-      <c r="N29" s="310" t="s">
+      <c r="N29" s="264" t="s">
         <v>100</v>
       </c>
       <c r="O29" s="135" t="s">
@@ -29453,13 +29453,13 @@
       <c r="J30" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="L30" s="306" t="s">
+      <c r="L30" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="M30" s="309" t="s">
+      <c r="M30" s="263" t="s">
         <v>113</v>
       </c>
-      <c r="N30" s="310" t="s">
+      <c r="N30" s="264" t="s">
         <v>101</v>
       </c>
       <c r="O30" s="135" t="s">
@@ -29510,13 +29510,13 @@
       <c r="J31" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="L31" s="306" t="s">
+      <c r="L31" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="M31" s="309" t="s">
+      <c r="M31" s="263" t="s">
         <v>113</v>
       </c>
-      <c r="N31" s="310" t="s">
+      <c r="N31" s="264" t="s">
         <v>102</v>
       </c>
       <c r="O31" s="135" t="s">
@@ -29571,13 +29571,13 @@
       <c r="J32" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="L32" s="306" t="s">
+      <c r="L32" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="M32" s="309" t="s">
+      <c r="M32" s="263" t="s">
         <v>113</v>
       </c>
-      <c r="N32" s="310" t="s">
+      <c r="N32" s="264" t="s">
         <v>103</v>
       </c>
       <c r="O32" s="135" t="s">
@@ -29628,13 +29628,13 @@
       <c r="J33" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="L33" s="306" t="s">
+      <c r="L33" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="M33" s="309" t="s">
+      <c r="M33" s="263" t="s">
         <v>113</v>
       </c>
-      <c r="N33" s="310" t="s">
+      <c r="N33" s="264" t="s">
         <v>104</v>
       </c>
       <c r="O33" s="135" t="s">
@@ -29673,13 +29673,13 @@
       <c r="AB33" s="134"/>
     </row>
     <row r="34" spans="7:28">
-      <c r="L34" s="306" t="s">
+      <c r="L34" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="M34" s="309" t="s">
+      <c r="M34" s="263" t="s">
         <v>113</v>
       </c>
-      <c r="N34" s="310" t="s">
+      <c r="N34" s="264" t="s">
         <v>105</v>
       </c>
       <c r="O34" s="135" t="s">
@@ -29717,13 +29717,13 @@
         <v>154</v>
       </c>
       <c r="I35" s="134"/>
-      <c r="L35" s="306" t="s">
+      <c r="L35" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="M35" s="309" t="s">
+      <c r="M35" s="263" t="s">
         <v>113</v>
       </c>
-      <c r="N35" s="310" t="s">
+      <c r="N35" s="264" t="s">
         <v>106</v>
       </c>
       <c r="O35" s="135" t="s">
@@ -29763,13 +29763,13 @@
       <c r="I36" s="140" t="s">
         <v>404</v>
       </c>
-      <c r="L36" s="306" t="s">
+      <c r="L36" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="M36" s="309" t="s">
+      <c r="M36" s="263" t="s">
         <v>113</v>
       </c>
-      <c r="N36" s="310" t="s">
+      <c r="N36" s="264" t="s">
         <v>107</v>
       </c>
       <c r="O36" s="135" t="s">
@@ -29811,13 +29811,13 @@
       <c r="I37" s="140" t="s">
         <v>425</v>
       </c>
-      <c r="L37" s="306" t="s">
+      <c r="L37" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="M37" s="309" t="s">
+      <c r="M37" s="263" t="s">
         <v>113</v>
       </c>
-      <c r="N37" s="310" t="s">
+      <c r="N37" s="264" t="s">
         <v>108</v>
       </c>
       <c r="O37" s="135" t="s">
@@ -29859,13 +29859,13 @@
       <c r="I38" s="140" t="s">
         <v>151</v>
       </c>
-      <c r="L38" s="306" t="s">
+      <c r="L38" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="M38" s="309" t="s">
+      <c r="M38" s="263" t="s">
         <v>113</v>
       </c>
-      <c r="N38" s="310" t="s">
+      <c r="N38" s="264" t="s">
         <v>109</v>
       </c>
       <c r="O38" s="135" t="s">
@@ -29911,13 +29911,13 @@
       <c r="I39" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="L39" s="306" t="s">
+      <c r="L39" s="260" t="s">
         <v>51</v>
       </c>
-      <c r="M39" s="309" t="s">
+      <c r="M39" s="263" t="s">
         <v>113</v>
       </c>
-      <c r="N39" s="310" t="s">
+      <c r="N39" s="264" t="s">
         <v>185</v>
       </c>
       <c r="O39" s="135" t="s">
@@ -34889,7 +34889,7 @@
       <c r="H7" s="197" t="s">
         <v>517</v>
       </c>
-      <c r="I7" s="313" t="s">
+      <c r="I7" s="267" t="s">
         <v>571</v>
       </c>
       <c r="J7" s="202"/>
